--- a/tests/test1/d20/ЛМ, 0.5.xlsx
+++ b/tests/test1/d20/ЛМ, 0.5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -582,7 +582,7 @@
         <v>359.8840532840362</v>
       </c>
       <c r="F2" t="n">
-        <v>20.31693947714296</v>
+        <v>20.31693947714295</v>
       </c>
       <c r="G2" t="n">
         <v>98.36897985338918</v>
@@ -612,25 +612,25 @@
         <v>44.44667330792705</v>
       </c>
       <c r="P2" t="n">
-        <v>21.87082362668282</v>
+        <v>21.87082362668281</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02645674986025797</v>
+        <v>0.02645674986025799</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4100548468876526</v>
+        <v>0.410054846887648</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3596958563824071</v>
+        <v>0.3596958563824026</v>
       </c>
       <c r="T2" t="n">
-        <v>0.09253382711147518</v>
+        <v>0.09253382711147548</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2496573217637819</v>
+        <v>0.2496573217637817</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1615475648164454</v>
+        <v>0.1615475648164431</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.002564399999997136</v>
+        <v>0.002778799999987314</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -664,10 +664,10 @@
         <v>0.01277276497575887</v>
       </c>
       <c r="F3" t="n">
-        <v>19.55130045447371</v>
+        <v>19.5513004544737</v>
       </c>
       <c r="G3" t="n">
-        <v>75.06427783841391</v>
+        <v>75.06427783841389</v>
       </c>
       <c r="H3" t="n">
         <v>11.25113779517468</v>
@@ -694,25 +694,25 @@
         <v>34.85946589308373</v>
       </c>
       <c r="P3" t="n">
-        <v>24.87911169246854</v>
+        <v>24.87911169246853</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02561364778374559</v>
+        <v>0.02561364778374378</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3679750599174429</v>
+        <v>0.3679750599173746</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3192713910423864</v>
+        <v>0.3192713910423208</v>
       </c>
       <c r="T3" t="n">
-        <v>0.165462103292994</v>
+        <v>0.1654621032929784</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2485075195526529</v>
+        <v>0.2485075195526531</v>
       </c>
       <c r="V3" t="n">
-        <v>0.156268371134237</v>
+        <v>0.1562683711342374</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.002446400000003734</v>
+        <v>0.002018999999990001</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -749,10 +749,10 @@
         <v>20.23122829688234</v>
       </c>
       <c r="G4" t="n">
-        <v>85.10463615424186</v>
+        <v>85.10463615424182</v>
       </c>
       <c r="H4" t="n">
-        <v>3.205380145041894</v>
+        <v>3.205380145041895</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -779,22 +779,22 @@
         <v>18.63372756013747</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02321884302318095</v>
+        <v>0.02321884302318066</v>
       </c>
       <c r="R4" t="n">
-        <v>0.253412442273017</v>
+        <v>0.2534124422730124</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1210230794978876</v>
+        <v>0.1210230794978866</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2932407364050352</v>
+        <v>0.2932407364050318</v>
       </c>
       <c r="U4" t="n">
-        <v>0.263717576352676</v>
+        <v>0.2637175763526761</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2866710679641388</v>
+        <v>0.2866710679641363</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002247400000001676</v>
+        <v>0.001641199999994569</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -831,7 +831,7 @@
         <v>19.5411455736029</v>
       </c>
       <c r="G5" t="n">
-        <v>99.91644577247638</v>
+        <v>99.91644577247634</v>
       </c>
       <c r="H5" t="n">
         <v>11.02064030756953</v>
@@ -861,22 +861,22 @@
         <v>20.42641385119286</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02447268462156979</v>
+        <v>0.02447268462157129</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3701615586545601</v>
+        <v>0.3701615586546011</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3206514824450931</v>
+        <v>0.320651482445133</v>
       </c>
       <c r="T5" t="n">
-        <v>0.08876151601184434</v>
+        <v>0.08876151601184451</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2611432793819099</v>
+        <v>0.2611432793819101</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1971003602581371</v>
+        <v>0.197100360258135</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.002528000000005193</v>
+        <v>0.00276399999998489</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -916,7 +916,7 @@
         <v>174.3936001044606</v>
       </c>
       <c r="H6" t="n">
-        <v>9.640152295444596</v>
+        <v>9.640152295444597</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>21.48227440857998</v>
       </c>
       <c r="P6" t="n">
-        <v>6.283720050106451</v>
+        <v>6.283720050106453</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01904748688190155</v>
+        <v>0.01904748688190152</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1313743098234529</v>
+        <v>0.1313743098234543</v>
       </c>
       <c r="S6" t="n">
-        <v>0.06752797325972543</v>
+        <v>0.06752797325972729</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1219106613959426</v>
+        <v>0.1219106613959413</v>
       </c>
       <c r="U6" t="n">
         <v>0.2352307617756352</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.004189999999994143</v>
+        <v>0.0018036999999822</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
@@ -992,13 +992,13 @@
         <v>359.9192881472466</v>
       </c>
       <c r="F7" t="n">
-        <v>20.30929588706531</v>
+        <v>20.3092958870653</v>
       </c>
       <c r="G7" t="n">
-        <v>39.92072692769353</v>
+        <v>39.92072692769354</v>
       </c>
       <c r="H7" t="n">
-        <v>13.91143168968482</v>
+        <v>13.91143168968481</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1019,28 +1019,28 @@
         <v>31.91172483743855</v>
       </c>
       <c r="O7" t="n">
-        <v>21.24258718225469</v>
+        <v>21.2425871822547</v>
       </c>
       <c r="P7" t="n">
         <v>32.71897635849157</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02782061068362927</v>
+        <v>0.02782061068362924</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4064520658269735</v>
+        <v>0.4064520658269804</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2898324572833861</v>
+        <v>0.2898324572833926</v>
       </c>
       <c r="T7" t="n">
-        <v>0.4053351915256442</v>
+        <v>0.4053351915256502</v>
       </c>
       <c r="U7" t="n">
         <v>0.2398296657261714</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1420952715957382</v>
+        <v>0.1420952715957372</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002167599999999936</v>
+        <v>0.001827700000006871</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1074,13 +1074,13 @@
         <v>0.02550894743709831</v>
       </c>
       <c r="F8" t="n">
-        <v>19.81335395843562</v>
+        <v>19.81335395843561</v>
       </c>
       <c r="G8" t="n">
         <v>161.7849591954208</v>
       </c>
       <c r="H8" t="n">
-        <v>7.023482172737705</v>
+        <v>7.023482172737702</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>10.25939500470955</v>
       </c>
       <c r="O8" t="n">
-        <v>22.53560847936283</v>
+        <v>22.53560847936282</v>
       </c>
       <c r="P8" t="n">
-        <v>9.950989092162915</v>
+        <v>9.950989092162914</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02070220732318372</v>
+        <v>0.02070220732318414</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1733720725428797</v>
+        <v>0.1733720725428821</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09218860292161271</v>
+        <v>0.09218860292161397</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1387782967774498</v>
+        <v>0.1387782967774537</v>
       </c>
       <c r="U8" t="n">
         <v>0.2321032286387895</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1005928451086538</v>
+        <v>0.1005928451086529</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002344799999995928</v>
+        <v>0.001888199999996232</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1162,7 +1162,7 @@
         <v>13.43365590838131</v>
       </c>
       <c r="H9" t="n">
-        <v>11.67589992299048</v>
+        <v>11.67589992299049</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1186,25 +1186,25 @@
         <v>8.316619555811275</v>
       </c>
       <c r="P9" t="n">
-        <v>30.73371075167831</v>
+        <v>30.73371075167832</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02428161689597318</v>
+        <v>0.02428161689597269</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4060073547995854</v>
+        <v>0.4060073547995809</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1276081359114556</v>
+        <v>0.1276081359114513</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6602170492280993</v>
+        <v>0.6602170492280763</v>
       </c>
       <c r="U9" t="n">
-        <v>0.237209090147116</v>
+        <v>0.2372090901471159</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2381334023540273</v>
+        <v>0.2381334023540255</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.001991799999998989</v>
+        <v>0.001738899999992327</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1235,16 +1235,16 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10" t="n">
-        <v>0.009227752271850357</v>
+        <v>0.009227752271863079</v>
       </c>
       <c r="F10" t="n">
-        <v>20.06004432285599</v>
+        <v>20.06004432285595</v>
       </c>
       <c r="G10" t="n">
-        <v>157.2124990479456</v>
+        <v>157.2124990479457</v>
       </c>
       <c r="H10" t="n">
-        <v>14.67087121966384</v>
+        <v>14.67087121966381</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1265,28 +1265,28 @@
         <v>8.056033186416919</v>
       </c>
       <c r="O10" t="n">
-        <v>81.37184112966575</v>
+        <v>81.37184112966573</v>
       </c>
       <c r="P10" t="n">
-        <v>8.08386074146882</v>
+        <v>8.083860741468794</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02588419515592559</v>
+        <v>0.02588419515591236</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5761717393338516</v>
+        <v>0.5761717393334285</v>
       </c>
       <c r="S10" t="n">
-        <v>0.298212588994323</v>
+        <v>0.2982125889941055</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4372577317355141</v>
+        <v>0.4372577317351934</v>
       </c>
       <c r="U10" t="n">
         <v>0.2740002205187016</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01938154119639451</v>
+        <v>0.01938154119638831</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.0073112999999978</v>
+        <v>0.004363099999977749</v>
       </c>
       <c r="Y10" t="n">
         <v>24</v>
@@ -1326,7 +1326,7 @@
         <v>2.005540086478239</v>
       </c>
       <c r="H11" t="n">
-        <v>8.678281651184127</v>
+        <v>8.678281651184131</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1350,25 +1350,25 @@
         <v>3.107996334941579</v>
       </c>
       <c r="P11" t="n">
-        <v>28.18580057155731</v>
+        <v>28.18580057155732</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02058540985312472</v>
+        <v>0.02058540985312456</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6403655832587991</v>
+        <v>0.6403655832587977</v>
       </c>
       <c r="S11" t="n">
-        <v>0.06993707536205379</v>
+        <v>0.06993707536205278</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01702248846411</v>
+        <v>1.017022488464098</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2617561883307868</v>
+        <v>0.2617561883307871</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1065405371767619</v>
+        <v>0.1065405371767605</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001776599999999462</v>
+        <v>0.002125599999999395</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1408,7 +1408,7 @@
         <v>139.0094414388285</v>
       </c>
       <c r="H12" t="n">
-        <v>3.28446335797969</v>
+        <v>3.284463357979687</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1435,22 +1435,22 @@
         <v>14.90843685899575</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02145698640646525</v>
+        <v>0.02145698640646532</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2139281462905149</v>
+        <v>0.2139281462905109</v>
       </c>
       <c r="S12" t="n">
-        <v>0.093289291126203</v>
+        <v>0.09328929112620477</v>
       </c>
       <c r="T12" t="n">
         <v>0.2665339388145423</v>
       </c>
       <c r="U12" t="n">
-        <v>0.2224082078550408</v>
+        <v>0.2224082078550407</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0431181858723967</v>
+        <v>0.04311818587239394</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.00193660000000051</v>
+        <v>0.00177060000001461</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1487,10 +1487,10 @@
         <v>19.44588699167108</v>
       </c>
       <c r="G13" t="n">
-        <v>31.05535188533653</v>
+        <v>31.05535188533658</v>
       </c>
       <c r="H13" t="n">
-        <v>3.105618810831973</v>
+        <v>3.105618810831968</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1514,25 +1514,25 @@
         <v>8.806388119800138</v>
       </c>
       <c r="P13" t="n">
-        <v>20.26095854750364</v>
+        <v>20.26095854750363</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02125743593298045</v>
+        <v>0.02125743593298011</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2959036217201292</v>
+        <v>0.2959036217201309</v>
       </c>
       <c r="S13" t="n">
-        <v>0.08685280597169437</v>
+        <v>0.08685280597169316</v>
       </c>
       <c r="T13" t="n">
-        <v>0.4573354688256513</v>
+        <v>0.4573354688256426</v>
       </c>
       <c r="U13" t="n">
-        <v>0.2407181252835191</v>
+        <v>0.2407181252835192</v>
       </c>
       <c r="V13" t="n">
-        <v>0.221026947033084</v>
+        <v>0.2210269470330869</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002000799999997582</v>
+        <v>0.001665900000006104</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1566,7 +1566,7 @@
         <v>0.04054150544360966</v>
       </c>
       <c r="F14" t="n">
-        <v>20.46471645504359</v>
+        <v>20.46471645504358</v>
       </c>
       <c r="G14" t="n">
         <v>27.64631952169072</v>
@@ -1596,25 +1596,25 @@
         <v>14.64831509004893</v>
       </c>
       <c r="P14" t="n">
-        <v>32.15497597549095</v>
+        <v>32.15497597549094</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02708776290556418</v>
+        <v>0.0270877629055645</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3917490572101257</v>
+        <v>0.391749057210138</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2081165019399322</v>
+        <v>0.2081165019399405</v>
       </c>
       <c r="T14" t="n">
-        <v>0.5036261922839196</v>
+        <v>0.5036261922839311</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2517535839712022</v>
+        <v>0.251753583971202</v>
       </c>
       <c r="V14" t="n">
-        <v>0.2046937692420137</v>
+        <v>0.204693769242013</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002015600000000006</v>
+        <v>0.001606500000008282</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1648,13 +1648,13 @@
         <v>0.006097040518815263</v>
       </c>
       <c r="F15" t="n">
-        <v>20.0587665699211</v>
+        <v>20.05876656992109</v>
       </c>
       <c r="G15" t="n">
         <v>139.7863391969599</v>
       </c>
       <c r="H15" t="n">
-        <v>5.873103750495151</v>
+        <v>5.873103750495147</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1678,25 +1678,25 @@
         <v>25.38507405531942</v>
       </c>
       <c r="P15" t="n">
-        <v>13.34938819062866</v>
+        <v>13.34938819062865</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02254844375429044</v>
+        <v>0.02254844375429031</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2240817122862722</v>
+        <v>0.2240817122862865</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1283513431173351</v>
+        <v>0.1283513431173409</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1411499131758688</v>
+        <v>0.1411499131758642</v>
       </c>
       <c r="U15" t="n">
-        <v>0.2193447735253602</v>
+        <v>0.21934477352536</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0353510251655462</v>
+        <v>0.03535102516554357</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002730999999997152</v>
+        <v>0.001948599999991529</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -1733,7 +1733,7 @@
         <v>19.8450809445079</v>
       </c>
       <c r="G16" t="n">
-        <v>92.28836903355612</v>
+        <v>92.28836903355607</v>
       </c>
       <c r="H16" t="n">
         <v>12.16439635132224</v>
@@ -1757,28 +1757,28 @@
         <v>23.0795266139911</v>
       </c>
       <c r="O16" t="n">
-        <v>43.48551186526307</v>
+        <v>43.48551186526306</v>
       </c>
       <c r="P16" t="n">
         <v>22.94242274194697</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02541459079332811</v>
+        <v>0.02541459079332493</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4020744689563796</v>
+        <v>0.402074468956265</v>
       </c>
       <c r="S16" t="n">
-        <v>0.3668205299109646</v>
+        <v>0.3668205299108535</v>
       </c>
       <c r="T16" t="n">
-        <v>0.09723338566078871</v>
+        <v>0.09723338566078754</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2596530631956443</v>
+        <v>0.2596530631956442</v>
       </c>
       <c r="V16" t="n">
-        <v>0.04475326961528574</v>
+        <v>0.04475326961528717</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.00241110000000333</v>
+        <v>0.001968600000026299</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1818,7 +1818,7 @@
         <v>153.0849611520673</v>
       </c>
       <c r="H17" t="n">
-        <v>5.140806690351245</v>
+        <v>5.140806690351243</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1845,22 +1845,22 @@
         <v>12.47734016354945</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02122402127938905</v>
+        <v>0.02122402127938822</v>
       </c>
       <c r="R17" t="n">
-        <v>0.190797505142988</v>
+        <v>0.1907975051429947</v>
       </c>
       <c r="S17" t="n">
-        <v>0.09531606896889834</v>
+        <v>0.09531606896889634</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1928399370818198</v>
+        <v>0.1928399370818106</v>
       </c>
       <c r="U17" t="n">
         <v>0.2504080765609229</v>
       </c>
       <c r="V17" t="n">
-        <v>0.02123367007708152</v>
+        <v>0.02123367007708285</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002251600000001019</v>
+        <v>0.001867800000013631</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1891,16 +1891,16 @@
         <v>9.277960096808114</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02694884735226292</v>
+        <v>0.0269488473522502</v>
       </c>
       <c r="F18" t="n">
-        <v>19.3839300844045</v>
+        <v>19.38393008440451</v>
       </c>
       <c r="G18" t="n">
-        <v>40.41349119150083</v>
+        <v>40.41349119150084</v>
       </c>
       <c r="H18" t="n">
-        <v>8.701540545236341</v>
+        <v>8.701540545236345</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1927,22 +1927,22 @@
         <v>25.96456050794384</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.02477998047725978</v>
+        <v>0.02477998047725889</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3120022598078043</v>
+        <v>0.3120022598078051</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1835910475130677</v>
+        <v>0.183591047513059</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3439439429316862</v>
+        <v>0.3439439429316676</v>
       </c>
       <c r="U18" t="n">
         <v>0.2131225067486651</v>
       </c>
       <c r="V18" t="n">
-        <v>0.2518434279170519</v>
+        <v>0.2518434279170507</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.0020150000000001</v>
+        <v>0.001816000000019358</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -1976,13 +1976,13 @@
         <v>359.9117883221737</v>
       </c>
       <c r="F19" t="n">
-        <v>19.8731195207121</v>
+        <v>19.87311952071211</v>
       </c>
       <c r="G19" t="n">
         <v>51.93053159318602</v>
       </c>
       <c r="H19" t="n">
-        <v>9.62128917647245</v>
+        <v>9.621289176472448</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2006,25 +2006,25 @@
         <v>22.76515402281446</v>
       </c>
       <c r="P19" t="n">
-        <v>26.43524902516802</v>
+        <v>26.43524902516803</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.02597859290229886</v>
+        <v>0.02597859290229943</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3401324500957867</v>
+        <v>0.3401324500958128</v>
       </c>
       <c r="S19" t="n">
-        <v>0.2336595868130674</v>
+        <v>0.2336595868130885</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2893585538172982</v>
+        <v>0.2893585538173115</v>
       </c>
       <c r="U19" t="n">
         <v>0.2576222978049214</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1218132831511651</v>
+        <v>0.1218132831511649</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002072099999999466</v>
+        <v>0.001690399999972669</v>
       </c>
       <c r="Y19" t="n">
         <v>8</v>
@@ -2061,10 +2061,10 @@
         <v>20.46651720766575</v>
       </c>
       <c r="G20" t="n">
-        <v>115.7527121244425</v>
+        <v>115.7527121244424</v>
       </c>
       <c r="H20" t="n">
-        <v>9.454642533145066</v>
+        <v>9.454642533145071</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2085,28 +2085,28 @@
         <v>16.50686888128499</v>
       </c>
       <c r="O20" t="n">
-        <v>41.24689083143234</v>
+        <v>41.24689083143235</v>
       </c>
       <c r="P20" t="n">
         <v>17.18443264488164</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.02554242863245563</v>
+        <v>0.02554242863245599</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3464653067673695</v>
+        <v>0.3464653067673897</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2543676734951084</v>
+        <v>0.2543676734951213</v>
       </c>
       <c r="T20" t="n">
-        <v>0.09514070859367615</v>
+        <v>0.09514070859367747</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2552737302227718</v>
+        <v>0.255273730222772</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2381063870400703</v>
+        <v>0.2381063870400739</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002225299999999208</v>
+        <v>0.0030439999999885</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
@@ -2146,7 +2146,7 @@
         <v>17.26598147315955</v>
       </c>
       <c r="H21" t="n">
-        <v>12.38545007305054</v>
+        <v>12.38545007305053</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2173,22 +2173,22 @@
         <v>31.86587363119241</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.02543390739719481</v>
+        <v>0.02543390739719547</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3966481146583044</v>
+        <v>0.3966481146583025</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1531210070601474</v>
+        <v>0.1531210070601481</v>
       </c>
       <c r="T21" t="n">
-        <v>0.6142278977954637</v>
+        <v>0.6142278977954821</v>
       </c>
       <c r="U21" t="n">
         <v>0.2412008201313104</v>
       </c>
       <c r="V21" t="n">
-        <v>0.06537880384602773</v>
+        <v>0.06537880384602682</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002030900000001168</v>
+        <v>0.001728900000017575</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2219,16 +2219,16 @@
         <v>13.77256473491301</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06809886949591078</v>
+        <v>0.06809886949589807</v>
       </c>
       <c r="F22" t="n">
-        <v>19.45641515915149</v>
+        <v>19.45641515915151</v>
       </c>
       <c r="G22" t="n">
         <v>106.1638713487399</v>
       </c>
       <c r="H22" t="n">
-        <v>13.22907867490451</v>
+        <v>13.22907867490452</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2249,28 +2249,28 @@
         <v>21.3741511885343</v>
       </c>
       <c r="O22" t="n">
-        <v>52.92989421991405</v>
+        <v>52.92989421991406</v>
       </c>
       <c r="P22" t="n">
-        <v>20.60528838887033</v>
+        <v>20.60528838887036</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.02472133528436542</v>
+        <v>0.02472133528436065</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4236903556904059</v>
+        <v>0.4236903556902452</v>
       </c>
       <c r="S22" t="n">
-        <v>0.3989815257538221</v>
+        <v>0.3989815257536619</v>
       </c>
       <c r="T22" t="n">
-        <v>0.105412294596135</v>
+        <v>0.1054122945961176</v>
       </c>
       <c r="U22" t="n">
-        <v>0.2355510813803541</v>
+        <v>0.2355510813803542</v>
       </c>
       <c r="V22" t="n">
-        <v>0.1813574414936531</v>
+        <v>0.1813574414936471</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.005342699999999923</v>
+        <v>0.00237070000000017</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2304,13 +2304,13 @@
         <v>359.9297208167811</v>
       </c>
       <c r="F23" t="n">
-        <v>20.48235709364986</v>
+        <v>20.48235709364987</v>
       </c>
       <c r="G23" t="n">
         <v>9.455115396637567</v>
       </c>
       <c r="H23" t="n">
-        <v>7.130925452702538</v>
+        <v>7.130925452702539</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2337,22 +2337,22 @@
         <v>26.43023975288197</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.02227999643500329</v>
+        <v>0.0222799964350033</v>
       </c>
       <c r="R23" t="n">
-        <v>0.4593908850929027</v>
+        <v>0.4593908850929061</v>
       </c>
       <c r="S23" t="n">
-        <v>0.08816437387823174</v>
+        <v>0.08816437387823173</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7464629657750994</v>
+        <v>0.7464629657750971</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2532448167681073</v>
+        <v>0.2532448167681074</v>
       </c>
       <c r="V23" t="n">
-        <v>0.3993148501432796</v>
+        <v>0.3993148501432802</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001751299999995126</v>
+        <v>0.001687000000003991</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2386,7 +2386,7 @@
         <v>0.009982471066411524</v>
       </c>
       <c r="F24" t="n">
-        <v>20.48234883278355</v>
+        <v>20.48234883278354</v>
       </c>
       <c r="G24" t="n">
         <v>39.16753558433518</v>
@@ -2419,22 +2419,22 @@
         <v>26.91709453995358</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.02603027203984678</v>
+        <v>0.02603027203984645</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3410695477375346</v>
+        <v>0.3410695477375413</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1860253748216697</v>
+        <v>0.1860253748216748</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3846799937945957</v>
+        <v>0.3846799937945931</v>
       </c>
       <c r="U24" t="n">
         <v>0.2757655726691789</v>
       </c>
       <c r="V24" t="n">
-        <v>0.1339473173676474</v>
+        <v>0.1339473173676472</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002631600000000844</v>
+        <v>0.001752299999992601</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2468,13 +2468,13 @@
         <v>359.9713504208983</v>
       </c>
       <c r="F25" t="n">
-        <v>19.83551207464872</v>
+        <v>19.83551207464871</v>
       </c>
       <c r="G25" t="n">
         <v>93.06721638612723</v>
       </c>
       <c r="H25" t="n">
-        <v>14.26722804380964</v>
+        <v>14.26722804380963</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2495,28 +2495,28 @@
         <v>24.6655445066675</v>
       </c>
       <c r="O25" t="n">
-        <v>48.23541646910338</v>
+        <v>48.23541646910337</v>
       </c>
       <c r="P25" t="n">
-        <v>24.47644496856035</v>
+        <v>24.47644496856033</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.02625743595708954</v>
+        <v>0.02625743595709</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4484111542041562</v>
+        <v>0.4484111542041616</v>
       </c>
       <c r="S25" t="n">
-        <v>0.4494904733753351</v>
+        <v>0.4494904733753446</v>
       </c>
       <c r="T25" t="n">
-        <v>0.08713281725057079</v>
+        <v>0.08713281725056927</v>
       </c>
       <c r="U25" t="n">
-        <v>0.229040859956604</v>
+        <v>0.2290408599566038</v>
       </c>
       <c r="V25" t="n">
-        <v>0.04504492750983917</v>
+        <v>0.04504492750983543</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.002694800000000441</v>
+        <v>0.002227900000008276</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2583,19 +2583,19 @@
         <v>4.963379822968799</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.02145993334980763</v>
+        <v>0.02145993334980905</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2042756982137268</v>
+        <v>0.2042756982137581</v>
       </c>
       <c r="S26" t="n">
-        <v>0.09722448536029706</v>
+        <v>0.09722448536030931</v>
       </c>
       <c r="T26" t="n">
-        <v>0.08575353976750014</v>
+        <v>0.08575353976750993</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2434971337946531</v>
+        <v>0.2434971337946534</v>
       </c>
       <c r="V26" t="n">
         <v>0.0914952933712912</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.002633899999999301</v>
+        <v>0.002286499999996749</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -2659,28 +2659,28 @@
         <v>8.709475492388034</v>
       </c>
       <c r="O27" t="n">
-        <v>42.9537565103676</v>
+        <v>42.95375651036761</v>
       </c>
       <c r="P27" t="n">
         <v>8.846070268385029</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02285541851479761</v>
+        <v>0.02285541851479669</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2700844538401532</v>
+        <v>0.2700844538401535</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1489704082260315</v>
+        <v>0.1489704082260258</v>
       </c>
       <c r="T27" t="n">
-        <v>0.1070204508981305</v>
+        <v>0.1070204508981364</v>
       </c>
       <c r="U27" t="n">
         <v>0.2672138834318326</v>
       </c>
       <c r="V27" t="n">
-        <v>0.08953637389344737</v>
+        <v>0.08953637389344826</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.003054599999998686</v>
+        <v>0.00266960000001859</v>
       </c>
       <c r="Y27" t="n">
         <v>13</v>
@@ -2714,13 +2714,13 @@
         <v>0.03422185534131264</v>
       </c>
       <c r="F28" t="n">
-        <v>20.07957935716032</v>
+        <v>20.07957935716033</v>
       </c>
       <c r="G28" t="n">
-        <v>56.24328738650185</v>
+        <v>56.24328738650184</v>
       </c>
       <c r="H28" t="n">
-        <v>9.094680190940224</v>
+        <v>9.094680190940231</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2744,25 +2744,25 @@
         <v>23.55323688776143</v>
       </c>
       <c r="P28" t="n">
-        <v>25.66579520666366</v>
+        <v>25.66579520666368</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02588546007069931</v>
+        <v>0.02588546007070004</v>
       </c>
       <c r="R28" t="n">
-        <v>0.3402788422389127</v>
+        <v>0.3402788422389244</v>
       </c>
       <c r="S28" t="n">
-        <v>0.2335669735132062</v>
+        <v>0.2335669735132215</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2721219876770775</v>
+        <v>0.2721219876770903</v>
       </c>
       <c r="U28" t="n">
-        <v>0.2400353164766691</v>
+        <v>0.2400353164766693</v>
       </c>
       <c r="V28" t="n">
-        <v>0.07991460347621218</v>
+        <v>0.07991460347620838</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.001973299999995959</v>
+        <v>0.001630599999998594</v>
       </c>
       <c r="Y28" t="n">
         <v>8</v>
@@ -2799,10 +2799,10 @@
         <v>20.06427884465729</v>
       </c>
       <c r="G29" t="n">
-        <v>76.30190704803348</v>
+        <v>76.3019070480335</v>
       </c>
       <c r="H29" t="n">
-        <v>12.98621852067508</v>
+        <v>12.98621852067507</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2829,22 +2829,22 @@
         <v>26.67683386928936</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.02700798877674963</v>
+        <v>0.02700798877675198</v>
       </c>
       <c r="R29" t="n">
-        <v>0.4145285058203478</v>
+        <v>0.4145285058204488</v>
       </c>
       <c r="S29" t="n">
-        <v>0.3830363645134736</v>
+        <v>0.3830363645135689</v>
       </c>
       <c r="T29" t="n">
-        <v>0.1617372564191608</v>
+        <v>0.1617372564191775</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2587987474191533</v>
+        <v>0.2587987474191532</v>
       </c>
       <c r="V29" t="n">
-        <v>0.07905557234335694</v>
+        <v>0.07905557234335603</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.003095199999997078</v>
+        <v>0.002123400000016318</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2878,13 +2878,13 @@
         <v>359.9855390545702</v>
       </c>
       <c r="F30" t="n">
-        <v>20.02932246731697</v>
+        <v>20.02932246731698</v>
       </c>
       <c r="G30" t="n">
         <v>130.9758970257699</v>
       </c>
       <c r="H30" t="n">
-        <v>9.762685467321409</v>
+        <v>9.762685467321417</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2905,28 +2905,28 @@
         <v>13.89068101942091</v>
       </c>
       <c r="O30" t="n">
-        <v>45.81092692584851</v>
+        <v>45.81092692584849</v>
       </c>
       <c r="P30" t="n">
-        <v>13.96041021405149</v>
+        <v>13.9604102140515</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.02397811565919803</v>
+        <v>0.02397811565919906</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3253339399817171</v>
+        <v>0.3253339399817524</v>
       </c>
       <c r="S30" t="n">
-        <v>0.2253445044233562</v>
+        <v>0.2253445044233791</v>
       </c>
       <c r="T30" t="n">
-        <v>0.1048513976958951</v>
+        <v>0.104851397695903</v>
       </c>
       <c r="U30" t="n">
-        <v>0.2395878539189743</v>
+        <v>0.2395878539189742</v>
       </c>
       <c r="V30" t="n">
-        <v>0.02639070816276171</v>
+        <v>0.02639070816275792</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.00297759999999414</v>
+        <v>0.002193400000010115</v>
       </c>
       <c r="Y30" t="n">
         <v>10</v>
@@ -2960,13 +2960,13 @@
         <v>359.9575268553392</v>
       </c>
       <c r="F31" t="n">
-        <v>20.1810981169675</v>
+        <v>20.18109811696751</v>
       </c>
       <c r="G31" t="n">
         <v>154.0337388984059</v>
       </c>
       <c r="H31" t="n">
-        <v>6.376028126089635</v>
+        <v>6.376028126089636</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2990,25 +2990,25 @@
         <v>22.86192718487771</v>
       </c>
       <c r="P31" t="n">
-        <v>11.59688001166293</v>
+        <v>11.59688001166294</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.02181719658788858</v>
+        <v>0.02181719658788853</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1980059208611255</v>
+        <v>0.1980059208611158</v>
       </c>
       <c r="S31" t="n">
-        <v>0.1063506450700652</v>
+        <v>0.1063506450700612</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1481593716316422</v>
+        <v>0.1481593716316428</v>
       </c>
       <c r="U31" t="n">
-        <v>0.2514699693722579</v>
+        <v>0.2514699693722577</v>
       </c>
       <c r="V31" t="n">
-        <v>0.1115186832836441</v>
+        <v>0.1115186832836443</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.004214400000002172</v>
+        <v>0.001962800000001153</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
@@ -3039,7 +3039,7 @@
         <v>7.568981875621398</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04229515612535171</v>
+        <v>0.04229515612536443</v>
       </c>
       <c r="F32" t="n">
         <v>19.69960061600034</v>
@@ -3048,7 +3048,7 @@
         <v>116.1853058638881</v>
       </c>
       <c r="H32" t="n">
-        <v>7.393765532076642</v>
+        <v>7.393765532076641</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3072,25 +3072,25 @@
         <v>34.78515122566851</v>
       </c>
       <c r="P32" t="n">
-        <v>16.03318197686311</v>
+        <v>16.0331819768631</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.02352336016003616</v>
+        <v>0.02352336016003689</v>
       </c>
       <c r="R32" t="n">
-        <v>0.2836190821353972</v>
+        <v>0.2836190821354055</v>
       </c>
       <c r="S32" t="n">
-        <v>0.1951293940531015</v>
+        <v>0.1951293940531069</v>
       </c>
       <c r="T32" t="n">
-        <v>0.1043466748778637</v>
+        <v>0.1043466748778672</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2485597079394187</v>
+        <v>0.2485597079394182</v>
       </c>
       <c r="V32" t="n">
-        <v>0.1117073479324734</v>
+        <v>0.1117073479324747</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002364100000001201</v>
+        <v>0.001805499999989024</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3124,10 +3124,10 @@
         <v>0.08588784699213448</v>
       </c>
       <c r="F33" t="n">
-        <v>19.70681823964363</v>
+        <v>19.70681823964364</v>
       </c>
       <c r="G33" t="n">
-        <v>51.06594266851111</v>
+        <v>51.06594266851112</v>
       </c>
       <c r="H33" t="n">
         <v>14.28805336028124</v>
@@ -3154,25 +3154,25 @@
         <v>27.55074217400804</v>
       </c>
       <c r="P33" t="n">
-        <v>31.42923311248056</v>
+        <v>31.42923311248058</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.02689184950558203</v>
+        <v>0.02689184950558119</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4029526167612808</v>
+        <v>0.4029526167612469</v>
       </c>
       <c r="S33" t="n">
-        <v>0.3439787874723589</v>
+        <v>0.3439787874723254</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3175619096875228</v>
+        <v>0.317561909687501</v>
       </c>
       <c r="U33" t="n">
-        <v>0.2564024500626078</v>
+        <v>0.2564024500626081</v>
       </c>
       <c r="V33" t="n">
-        <v>0.09414510573682641</v>
+        <v>0.09414510573682354</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002313399999998467</v>
+        <v>0.001960700000012139</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3239,22 +3239,22 @@
         <v>10.65584015635084</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.02193985329826098</v>
+        <v>0.02193985329826038</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2067494324301051</v>
+        <v>0.2067494324301197</v>
       </c>
       <c r="S34" t="n">
-        <v>0.1167568215548929</v>
+        <v>0.116756821554895</v>
       </c>
       <c r="T34" t="n">
-        <v>0.1086937748071532</v>
+        <v>0.1086937748071504</v>
       </c>
       <c r="U34" t="n">
         <v>0.2525659754190252</v>
       </c>
       <c r="V34" t="n">
-        <v>0.07581505733880065</v>
+        <v>0.07581505733880037</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002263200000001575</v>
+        <v>0.00183870000000752</v>
       </c>
       <c r="Y34" t="n">
         <v>9</v>
@@ -3294,7 +3294,7 @@
         <v>46.78462786102087</v>
       </c>
       <c r="H35" t="n">
-        <v>7.684718728172546</v>
+        <v>7.684718728172549</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3318,25 +3318,25 @@
         <v>18.59463462586841</v>
       </c>
       <c r="P35" t="n">
-        <v>24.9119583284413</v>
+        <v>24.91195832844132</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.02506425849181452</v>
+        <v>0.02506425849181488</v>
       </c>
       <c r="R35" t="n">
-        <v>0.3139366737341306</v>
+        <v>0.3139366737341292</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1840073084054367</v>
+        <v>0.1840073084054384</v>
       </c>
       <c r="T35" t="n">
-        <v>0.3233212570457312</v>
+        <v>0.3233212570457373</v>
       </c>
       <c r="U35" t="n">
         <v>0.24002150259935</v>
       </c>
       <c r="V35" t="n">
-        <v>0.3312094827191786</v>
+        <v>0.3312094827191767</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002481100000004233</v>
+        <v>0.001644499999997606</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3376,7 +3376,7 @@
         <v>7.319152218969366</v>
       </c>
       <c r="H36" t="n">
-        <v>11.92014473104232</v>
+        <v>11.92014473104231</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3403,22 +3403,22 @@
         <v>31.99067373397691</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.02376274496882871</v>
+        <v>0.02376274496882907</v>
       </c>
       <c r="R36" t="n">
-        <v>0.5318534058264502</v>
+        <v>0.5318534058264522</v>
       </c>
       <c r="S36" t="n">
-        <v>0.1042956047302801</v>
+        <v>0.1042956047302812</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8886700050430301</v>
+        <v>0.88867000504305</v>
       </c>
       <c r="U36" t="n">
         <v>0.2388370176489716</v>
       </c>
       <c r="V36" t="n">
-        <v>0.1326070574370112</v>
+        <v>0.1326070574370126</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001829200000003084</v>
+        <v>0.001618800000017018</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3452,7 +3452,7 @@
         <v>359.9630569951448</v>
       </c>
       <c r="F37" t="n">
-        <v>20.12598947489903</v>
+        <v>20.12598947489902</v>
       </c>
       <c r="G37" t="n">
         <v>83.02628292753103</v>
@@ -3479,28 +3479,28 @@
         <v>20.58139294425217</v>
       </c>
       <c r="O37" t="n">
-        <v>26.5082689129557</v>
+        <v>26.50826891295572</v>
       </c>
       <c r="P37" t="n">
         <v>20.66945544474379</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.02494356370449903</v>
+        <v>0.02494356370449749</v>
       </c>
       <c r="R37" t="n">
-        <v>0.3037997044103343</v>
+        <v>0.3037997044103004</v>
       </c>
       <c r="S37" t="n">
-        <v>0.203069249651835</v>
+        <v>0.2030692496518067</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1877334654546045</v>
+        <v>0.1877334654545924</v>
       </c>
       <c r="U37" t="n">
-        <v>0.2609158940922962</v>
+        <v>0.2609158940922963</v>
       </c>
       <c r="V37" t="n">
-        <v>0.08384127828835819</v>
+        <v>0.08384127828836471</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.004039699999999868</v>
+        <v>0.001833899999979849</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3534,13 +3534,13 @@
         <v>0.05134744811312495</v>
       </c>
       <c r="F38" t="n">
-        <v>19.68828605116459</v>
+        <v>19.6882860511646</v>
       </c>
       <c r="G38" t="n">
         <v>131.603116927608</v>
       </c>
       <c r="H38" t="n">
-        <v>10.00215225480166</v>
+        <v>10.00215225480167</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3564,25 +3564,25 @@
         <v>48.15093594038015</v>
       </c>
       <c r="P38" t="n">
-        <v>13.64358403196954</v>
+        <v>13.64358403196955</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.02340168844581762</v>
+        <v>0.02340168844581927</v>
       </c>
       <c r="R38" t="n">
-        <v>0.3249146548523557</v>
+        <v>0.3249146548523733</v>
       </c>
       <c r="S38" t="n">
-        <v>0.2286497553555643</v>
+        <v>0.2286497553555832</v>
       </c>
       <c r="T38" t="n">
-        <v>0.110387949362559</v>
+        <v>0.1103879493625583</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2764045820501763</v>
+        <v>0.2764045820501762</v>
       </c>
       <c r="V38" t="n">
-        <v>0.1068282185565639</v>
+        <v>0.1068282185565621</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.004440199999997674</v>
+        <v>0.002881999999999607</v>
       </c>
       <c r="Y38" t="n">
         <v>15</v>
@@ -3643,22 +3643,22 @@
         <v>7.834932884569842</v>
       </c>
       <c r="O39" t="n">
-        <v>22.27430132674989</v>
+        <v>22.27430132674988</v>
       </c>
       <c r="P39" t="n">
         <v>8.198963580222738</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.02041032367252696</v>
+        <v>0.02041032367252752</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1593411707779502</v>
+        <v>0.1593411707779518</v>
       </c>
       <c r="S39" t="n">
-        <v>0.08226866282479248</v>
+        <v>0.08226866282479349</v>
       </c>
       <c r="T39" t="n">
-        <v>0.1299387664695115</v>
+        <v>0.1299387664695171</v>
       </c>
       <c r="U39" t="n">
         <v>0.24137264970311</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.005192999999998449</v>
+        <v>0.002295100000026196</v>
       </c>
       <c r="Y39" t="n">
         <v>9</v>
@@ -3698,13 +3698,13 @@
         <v>359.888737214812</v>
       </c>
       <c r="F40" t="n">
-        <v>20.22209540394694</v>
+        <v>20.22209540394693</v>
       </c>
       <c r="G40" t="n">
-        <v>69.29571712887207</v>
+        <v>69.29571712887208</v>
       </c>
       <c r="H40" t="n">
-        <v>13.5693938128291</v>
+        <v>13.56939381282909</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3725,28 +3725,28 @@
         <v>28.11848681131468</v>
       </c>
       <c r="O40" t="n">
-        <v>35.00691705644886</v>
+        <v>35.00691705644887</v>
       </c>
       <c r="P40" t="n">
-        <v>28.52283164964437</v>
+        <v>28.52283164964435</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.02753501308136974</v>
+        <v>0.02753501308136829</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4243428660448713</v>
+        <v>0.4243428660447282</v>
       </c>
       <c r="S40" t="n">
-        <v>0.3898066907041784</v>
+        <v>0.3898066907040569</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2042821508219969</v>
+        <v>0.2042821508219712</v>
       </c>
       <c r="U40" t="n">
         <v>0.2656713677960763</v>
       </c>
       <c r="V40" t="n">
-        <v>0.08246673619976451</v>
+        <v>0.08246673619976284</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.00242240000000038</v>
+        <v>0.002150599999993119</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3786,7 +3786,7 @@
         <v>98.31590311146429</v>
       </c>
       <c r="H41" t="n">
-        <v>12.35211630891232</v>
+        <v>12.35211630891231</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3813,22 +3813,22 @@
         <v>21.77395922684805</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.02536914282369149</v>
+        <v>0.02536914282368907</v>
       </c>
       <c r="R41" t="n">
-        <v>0.4037023165236882</v>
+        <v>0.4037023165235515</v>
       </c>
       <c r="S41" t="n">
-        <v>0.3706252455572267</v>
+        <v>0.3706252455571061</v>
       </c>
       <c r="T41" t="n">
-        <v>0.08733084823962739</v>
+        <v>0.08733084823962552</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2611985690310862</v>
+        <v>0.2611985690310861</v>
       </c>
       <c r="V41" t="n">
-        <v>0.08156170014543693</v>
+        <v>0.08156170014543755</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.006054900000002306</v>
+        <v>0.002277599999985114</v>
       </c>
       <c r="Y41" t="n">
         <v>11</v>
@@ -3865,10 +3865,10 @@
         <v>20.12750368759231</v>
       </c>
       <c r="G42" t="n">
-        <v>69.3399785018226</v>
+        <v>69.33997850182257</v>
       </c>
       <c r="H42" t="n">
-        <v>3.881158996979673</v>
+        <v>3.881158996979674</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3892,22 +3892,22 @@
         <v>16.07881845085235</v>
       </c>
       <c r="P42" t="n">
-        <v>19.93416237866855</v>
+        <v>19.93416237866854</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.02360949750117546</v>
+        <v>0.02360949750117568</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2648157937230345</v>
+        <v>0.2648157937230321</v>
       </c>
       <c r="S42" t="n">
-        <v>0.1313525475450553</v>
+        <v>0.1313525475450541</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2991185892619038</v>
+        <v>0.2991185892619063</v>
       </c>
       <c r="U42" t="n">
-        <v>0.242207445866231</v>
+        <v>0.2422074458662308</v>
       </c>
       <c r="V42" t="n">
         <v>0.3024669196981631</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.001989899999998102</v>
+        <v>0.002319900000003372</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3947,10 +3947,10 @@
         <v>19.96501503861362</v>
       </c>
       <c r="G43" t="n">
-        <v>52.10487686094262</v>
+        <v>52.10487686094257</v>
       </c>
       <c r="H43" t="n">
-        <v>2.938002337998075</v>
+        <v>2.938002337998078</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         <v>11.57183687485996</v>
       </c>
       <c r="P43" t="n">
-        <v>19.91896856873304</v>
+        <v>19.91896856873305</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.02260504357845044</v>
+        <v>0.0226050435784501</v>
       </c>
       <c r="R43" t="n">
-        <v>0.272401937729516</v>
+        <v>0.272401937729517</v>
       </c>
       <c r="S43" t="n">
-        <v>0.1036255869412947</v>
+        <v>0.1036255869412907</v>
       </c>
       <c r="T43" t="n">
-        <v>0.386703561698808</v>
+        <v>0.3867035616988002</v>
       </c>
       <c r="U43" t="n">
-        <v>0.2504917621231723</v>
+        <v>0.2504917621231724</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6910713550260229</v>
+        <v>0.691071355026019</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.004093499999996197</v>
+        <v>0.01256839999999215</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4029,7 +4029,7 @@
         <v>19.99288172061339</v>
       </c>
       <c r="G44" t="n">
-        <v>68.20511570382793</v>
+        <v>68.20511570382791</v>
       </c>
       <c r="H44" t="n">
         <v>14.08235782300486</v>
@@ -4056,25 +4056,25 @@
         <v>35.54665536874431</v>
       </c>
       <c r="P44" t="n">
-        <v>29.06776350621437</v>
+        <v>29.06776350621438</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.02677153851559205</v>
+        <v>0.02677153851559141</v>
       </c>
       <c r="R44" t="n">
-        <v>0.4263807090070632</v>
+        <v>0.4263807090070419</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4031336494663357</v>
+        <v>0.4031336494663098</v>
       </c>
       <c r="T44" t="n">
-        <v>0.2094820535736451</v>
+        <v>0.2094820535736339</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2343691468514477</v>
+        <v>0.234369146851448</v>
       </c>
       <c r="V44" t="n">
-        <v>0.113120996687409</v>
+        <v>0.113120996687407</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002429799999994486</v>
+        <v>0.002192000000007965</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4141,22 +4141,22 @@
         <v>29.59820217907563</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.02486207873954876</v>
+        <v>0.02486207873954854</v>
       </c>
       <c r="R45" t="n">
-        <v>0.3656054044748696</v>
+        <v>0.3656054044748697</v>
       </c>
       <c r="S45" t="n">
-        <v>0.1471527093474439</v>
+        <v>0.147152709347443</v>
       </c>
       <c r="T45" t="n">
-        <v>0.5485403035225526</v>
+        <v>0.5485403035225488</v>
       </c>
       <c r="U45" t="n">
-        <v>0.2444632819456709</v>
+        <v>0.244463281945671</v>
       </c>
       <c r="V45" t="n">
-        <v>0.1227906492784458</v>
+        <v>0.1227906492784462</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.003922699999996837</v>
+        <v>0.001887100000004693</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4223,16 +4223,16 @@
         <v>13.82302072906637</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.02181095667447793</v>
+        <v>0.02181095667447815</v>
       </c>
       <c r="R46" t="n">
-        <v>0.2084752769373398</v>
+        <v>0.2084752769373386</v>
       </c>
       <c r="S46" t="n">
-        <v>0.09554376549720558</v>
+        <v>0.09554376549720521</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2381054756023522</v>
+        <v>0.2381054756023571</v>
       </c>
       <c r="U46" t="n">
         <v>0.2494094983817594</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.001986100000003432</v>
+        <v>0.002325399999989486</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4278,7 +4278,7 @@
         <v>178.3794124401603</v>
       </c>
       <c r="H47" t="n">
-        <v>9.722920918339526</v>
+        <v>9.722920918339524</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4302,25 +4302,25 @@
         <v>14.90420130236546</v>
       </c>
       <c r="P47" t="n">
-        <v>5.878328397483876</v>
+        <v>5.878328397483878</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0171536276740705</v>
+        <v>0.01715362767407099</v>
       </c>
       <c r="R47" t="n">
-        <v>0.1254246185192156</v>
+        <v>0.125424618519215</v>
       </c>
       <c r="S47" t="n">
-        <v>0.04876659213032399</v>
+        <v>0.04876659213032648</v>
       </c>
       <c r="T47" t="n">
-        <v>0.1678076610779235</v>
+        <v>0.1678076610779269</v>
       </c>
       <c r="U47" t="n">
-        <v>0.2359288715641444</v>
+        <v>0.2359288715641441</v>
       </c>
       <c r="V47" t="n">
-        <v>0.1065701503635252</v>
+        <v>0.1065701503635242</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.001984799999995346</v>
+        <v>0.00170140000000174</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4354,7 +4354,7 @@
         <v>0.0272943494568535</v>
       </c>
       <c r="F48" t="n">
-        <v>19.96879684009567</v>
+        <v>19.96879684009566</v>
       </c>
       <c r="G48" t="n">
         <v>141.4107001752307</v>
@@ -4381,28 +4381,28 @@
         <v>11.82955794607099</v>
       </c>
       <c r="O48" t="n">
-        <v>50.88159654546301</v>
+        <v>50.881596545463</v>
       </c>
       <c r="P48" t="n">
-        <v>11.74610206367292</v>
+        <v>11.74610206367291</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.02352036958651825</v>
+        <v>0.02352036958652119</v>
       </c>
       <c r="R48" t="n">
-        <v>0.3300950980009168</v>
+        <v>0.330095098001062</v>
       </c>
       <c r="S48" t="n">
-        <v>0.2143355722128257</v>
+        <v>0.2143355722129083</v>
       </c>
       <c r="T48" t="n">
-        <v>0.1334227188953102</v>
+        <v>0.1334227188953666</v>
       </c>
       <c r="U48" t="n">
-        <v>0.2576212992455999</v>
+        <v>0.2576212992455996</v>
       </c>
       <c r="V48" t="n">
-        <v>0.03271776245478741</v>
+        <v>0.03271776245479033</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.00404540000000253</v>
+        <v>0.003447200000010753</v>
       </c>
       <c r="Y48" t="n">
         <v>18</v>
@@ -4436,10 +4436,10 @@
         <v>0.01946738381631457</v>
       </c>
       <c r="F49" t="n">
-        <v>20.19067277660919</v>
+        <v>20.19067277660918</v>
       </c>
       <c r="G49" t="n">
-        <v>20.62869252315632</v>
+        <v>20.62869252315631</v>
       </c>
       <c r="H49" t="n">
         <v>14.50621684813641</v>
@@ -4463,28 +4463,28 @@
         <v>34.68944772507457</v>
       </c>
       <c r="O49" t="n">
-        <v>12.1808103894127</v>
+        <v>12.18081038941269</v>
       </c>
       <c r="P49" t="n">
-        <v>34.64564990887527</v>
+        <v>34.64564990887526</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.02701203114748341</v>
+        <v>0.02701203114748303</v>
       </c>
       <c r="R49" t="n">
-        <v>0.4162536342111356</v>
+        <v>0.4162536342111405</v>
       </c>
       <c r="S49" t="n">
-        <v>0.1958421452218509</v>
+        <v>0.1958421452218491</v>
       </c>
       <c r="T49" t="n">
-        <v>0.6053848498610448</v>
+        <v>0.6053848498610322</v>
       </c>
       <c r="U49" t="n">
         <v>0.2489526503424196</v>
       </c>
       <c r="V49" t="n">
-        <v>0.04129431819498247</v>
+        <v>0.04129431819499086</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002242899999998826</v>
+        <v>0.001685999999978094</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4551,22 +4551,22 @@
         <v>33.69890979663477</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.02178458163286289</v>
+        <v>0.02178458163286284</v>
       </c>
       <c r="R50" t="n">
-        <v>0.6752962557176625</v>
+        <v>0.675296255717667</v>
       </c>
       <c r="S50" t="n">
-        <v>0.08542792177027578</v>
+        <v>0.08542792177027568</v>
       </c>
       <c r="T50" t="n">
-        <v>1.117516197381433</v>
+        <v>1.117516197381437</v>
       </c>
       <c r="U50" t="n">
-        <v>0.2546852413005991</v>
+        <v>0.2546852413005992</v>
       </c>
       <c r="V50" t="n">
-        <v>0.08920920717129652</v>
+        <v>0.08920920717129618</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001767899999997269</v>
+        <v>0.001388700000006793</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4606,7 +4606,7 @@
         <v>53.00747198187648</v>
       </c>
       <c r="H51" t="n">
-        <v>5.962739009082431</v>
+        <v>5.962739009082433</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4627,28 +4627,28 @@
         <v>22.67245653586901</v>
       </c>
       <c r="O51" t="n">
-        <v>17.83906621533104</v>
+        <v>17.83906621533103</v>
       </c>
       <c r="P51" t="n">
-        <v>22.45588398731324</v>
+        <v>22.45588398731325</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.0241671522281595</v>
+        <v>0.02416715222815993</v>
       </c>
       <c r="R51" t="n">
-        <v>0.2842024589710229</v>
+        <v>0.2842024589710298</v>
       </c>
       <c r="S51" t="n">
-        <v>0.1580584966106112</v>
+        <v>0.1580584966106185</v>
       </c>
       <c r="T51" t="n">
-        <v>0.2997089116201162</v>
+        <v>0.2997089116201236</v>
       </c>
       <c r="U51" t="n">
-        <v>0.2275629701746717</v>
+        <v>0.2275629701746718</v>
       </c>
       <c r="V51" t="n">
-        <v>0.06469112097847121</v>
+        <v>0.06469112097846995</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002006999999998982</v>
+        <v>0.001590399999997771</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4682,13 +4682,13 @@
         <v>359.9876718602333</v>
       </c>
       <c r="F52" t="n">
-        <v>19.98187093396522</v>
+        <v>19.98187093396521</v>
       </c>
       <c r="G52" t="n">
         <v>88.05869152517795</v>
       </c>
       <c r="H52" t="n">
-        <v>5.793522770880692</v>
+        <v>5.793522770880687</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4712,25 +4712,25 @@
         <v>24.75056524214413</v>
       </c>
       <c r="P52" t="n">
-        <v>19.38141519175348</v>
+        <v>19.38141519175347</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.02427207139485351</v>
+        <v>0.02427207139485452</v>
       </c>
       <c r="R52" t="n">
-        <v>0.2808785233414111</v>
+        <v>0.2808785233414241</v>
       </c>
       <c r="S52" t="n">
-        <v>0.1779832340152913</v>
+        <v>0.1779832340153057</v>
       </c>
       <c r="T52" t="n">
-        <v>0.1913038376867434</v>
+        <v>0.191303837686753</v>
       </c>
       <c r="U52" t="n">
-        <v>0.2450932790745291</v>
+        <v>0.2450932790745289</v>
       </c>
       <c r="V52" t="n">
-        <v>0.06851676433712349</v>
+        <v>0.06851676433712023</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.003278500000000406</v>
+        <v>0.002470899999991616</v>
       </c>
       <c r="Y52" t="n">
         <v>9</v>
@@ -4767,7 +4767,7 @@
         <v>19.79167789192299</v>
       </c>
       <c r="G53" t="n">
-        <v>116.5174841846008</v>
+        <v>116.5174841846009</v>
       </c>
       <c r="H53" t="n">
         <v>3.397717331835515</v>
@@ -4797,22 +4797,22 @@
         <v>16.0930989901803</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.02221942984675865</v>
+        <v>0.02221942984675842</v>
       </c>
       <c r="R53" t="n">
-        <v>0.2231098765000218</v>
+        <v>0.2231098765000261</v>
       </c>
       <c r="S53" t="n">
-        <v>0.1123168344628525</v>
+        <v>0.1123168344628537</v>
       </c>
       <c r="T53" t="n">
-        <v>0.2375363217097149</v>
+        <v>0.23753632170971</v>
       </c>
       <c r="U53" t="n">
         <v>0.2433042312065362</v>
       </c>
       <c r="V53" t="n">
-        <v>0.2704961677836103</v>
+        <v>0.2704961677836082</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.001973599999999465</v>
+        <v>0.00161040000000412</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4852,7 +4852,7 @@
         <v>142.2669719241177</v>
       </c>
       <c r="H54" t="n">
-        <v>3.159764474409663</v>
+        <v>3.159764474409664</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4879,22 +4879,22 @@
         <v>15.11019118589632</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.02147704141558026</v>
+        <v>0.02147704141557957</v>
       </c>
       <c r="R54" t="n">
-        <v>0.222162569332544</v>
+        <v>0.2221625693325461</v>
       </c>
       <c r="S54" t="n">
-        <v>0.08959842608107035</v>
+        <v>0.08959842608106984</v>
       </c>
       <c r="T54" t="n">
-        <v>0.2918572331968906</v>
+        <v>0.2918572331968782</v>
       </c>
       <c r="U54" t="n">
         <v>0.2308511980484426</v>
       </c>
       <c r="V54" t="n">
-        <v>0.3722243598907206</v>
+        <v>0.3722243598907198</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.001957999999994797</v>
+        <v>0.001627500000012105</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4934,7 +4934,7 @@
         <v>152.0302348857949</v>
       </c>
       <c r="H55" t="n">
-        <v>9.737491593169567</v>
+        <v>9.737491593169565</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4955,28 +4955,28 @@
         <v>9.632097422497353</v>
       </c>
       <c r="O55" t="n">
-        <v>43.12771970701241</v>
+        <v>43.12771970701242</v>
       </c>
       <c r="P55" t="n">
-        <v>9.706110853307242</v>
+        <v>9.706110853307241</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.02293439854768218</v>
+        <v>0.0229343985476811</v>
       </c>
       <c r="R55" t="n">
-        <v>0.2711252842331914</v>
+        <v>0.2711252842331744</v>
       </c>
       <c r="S55" t="n">
-        <v>0.157237115785773</v>
+        <v>0.1572371157857601</v>
       </c>
       <c r="T55" t="n">
-        <v>0.1032829493229738</v>
+        <v>0.1032829493229737</v>
       </c>
       <c r="U55" t="n">
         <v>0.2804759460507398</v>
       </c>
       <c r="V55" t="n">
-        <v>0.02804107940805312</v>
+        <v>0.02804107940805235</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.003085999999996147</v>
+        <v>0.002954799999997704</v>
       </c>
       <c r="Y55" t="n">
         <v>13</v>
@@ -5013,7 +5013,7 @@
         <v>19.60744421258026</v>
       </c>
       <c r="G56" t="n">
-        <v>77.00407648572173</v>
+        <v>77.00407648572171</v>
       </c>
       <c r="H56" t="n">
         <v>6.977600559991891</v>
@@ -5043,22 +5043,22 @@
         <v>21.06894975126515</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.02427849961260585</v>
+        <v>0.02427849961260602</v>
       </c>
       <c r="R56" t="n">
-        <v>0.2956603145944559</v>
+        <v>0.2956603145944356</v>
       </c>
       <c r="S56" t="n">
-        <v>0.2025751582922194</v>
+        <v>0.2025751582922068</v>
       </c>
       <c r="T56" t="n">
-        <v>0.1931054187398505</v>
+        <v>0.1931054187398525</v>
       </c>
       <c r="U56" t="n">
-        <v>0.2459250599144092</v>
+        <v>0.2459250599144093</v>
       </c>
       <c r="V56" t="n">
-        <v>0.2321035601163808</v>
+        <v>0.2321035601163801</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002191499999995017</v>
+        <v>0.001826600000015333</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5122,25 +5122,25 @@
         <v>10.40629536921423</v>
       </c>
       <c r="P57" t="n">
-        <v>35.38153824368831</v>
+        <v>35.3815382436883</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.02667873030128244</v>
+        <v>0.02667873030128196</v>
       </c>
       <c r="R57" t="n">
-        <v>0.4339643642792025</v>
+        <v>0.4339643642792033</v>
       </c>
       <c r="S57" t="n">
-        <v>0.1783339574106089</v>
+        <v>0.1783339574106022</v>
       </c>
       <c r="T57" t="n">
-        <v>0.6723740881801439</v>
+        <v>0.6723740881801197</v>
       </c>
       <c r="U57" t="n">
-        <v>0.2442816262283644</v>
+        <v>0.2442816262283642</v>
       </c>
       <c r="V57" t="n">
-        <v>0.1153926192616129</v>
+        <v>0.1153926192616119</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002009899999997344</v>
+        <v>0.001621400000004769</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5177,10 +5177,10 @@
         <v>20.06754880349762</v>
       </c>
       <c r="G58" t="n">
-        <v>176.6267471144469</v>
+        <v>176.6267471144468</v>
       </c>
       <c r="H58" t="n">
-        <v>6.898509952748802</v>
+        <v>6.8985099527488</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5201,28 +5201,28 @@
         <v>9.131905031738382</v>
       </c>
       <c r="O58" t="n">
-        <v>10.13291893099664</v>
+        <v>10.13291893099663</v>
       </c>
       <c r="P58" t="n">
-        <v>9.332882983145007</v>
+        <v>9.332882983145009</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.01763397696817538</v>
+        <v>0.01763397696817502</v>
       </c>
       <c r="R58" t="n">
-        <v>0.1844656016042291</v>
+        <v>0.1844656016042321</v>
       </c>
       <c r="S58" t="n">
-        <v>0.05091114292995533</v>
+        <v>0.05091114292995314</v>
       </c>
       <c r="T58" t="n">
-        <v>0.2653816036868491</v>
+        <v>0.265381603686844</v>
       </c>
       <c r="U58" t="n">
         <v>0.2397329665903494</v>
       </c>
       <c r="V58" t="n">
-        <v>0.1168691530126658</v>
+        <v>0.1168691530126684</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.001984899999996514</v>
+        <v>0.001628199999998969</v>
       </c>
       <c r="Y58" t="n">
         <v>8</v>
@@ -5259,10 +5259,10 @@
         <v>19.45109185363815</v>
       </c>
       <c r="G59" t="n">
-        <v>14.03394278307761</v>
+        <v>14.03394278307762</v>
       </c>
       <c r="H59" t="n">
-        <v>6.761306753095235</v>
+        <v>6.761306753095236</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5286,25 +5286,25 @@
         <v>7.20455578429927</v>
       </c>
       <c r="P59" t="n">
-        <v>24.90273369828157</v>
+        <v>24.90273369828158</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.02194916727179303</v>
+        <v>0.02194916727179283</v>
       </c>
       <c r="R59" t="n">
-        <v>0.3712399417092518</v>
+        <v>0.3712399417092551</v>
       </c>
       <c r="S59" t="n">
-        <v>0.09389558446558559</v>
+        <v>0.09389558446558394</v>
       </c>
       <c r="T59" t="n">
-        <v>0.5982839714086321</v>
+        <v>0.5982839714086248</v>
       </c>
       <c r="U59" t="n">
         <v>0.2727032982502161</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5233000522703452</v>
+        <v>0.5233000522703459</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.003403900000002125</v>
+        <v>0.001586099999997259</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5338,13 +5338,13 @@
         <v>359.9795212907723</v>
       </c>
       <c r="F60" t="n">
-        <v>19.34764315894581</v>
+        <v>19.34764315894582</v>
       </c>
       <c r="G60" t="n">
         <v>64.09224040029747</v>
       </c>
       <c r="H60" t="n">
-        <v>8.269031743749366</v>
+        <v>8.269031743749371</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5365,28 +5365,28 @@
         <v>23.90445332822715</v>
       </c>
       <c r="O60" t="n">
-        <v>25.59026187709884</v>
+        <v>25.59026187709885</v>
       </c>
       <c r="P60" t="n">
-        <v>23.35809145897174</v>
+        <v>23.35809145897175</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.02472813818518054</v>
+        <v>0.02472813818518198</v>
       </c>
       <c r="R60" t="n">
-        <v>0.3089076749419464</v>
+        <v>0.3089076749419623</v>
       </c>
       <c r="S60" t="n">
-        <v>0.2199847310888376</v>
+        <v>0.2199847310888585</v>
       </c>
       <c r="T60" t="n">
-        <v>0.2231149722560492</v>
+        <v>0.2231149722560684</v>
       </c>
       <c r="U60" t="n">
-        <v>0.2354356337423116</v>
+        <v>0.2354356337423112</v>
       </c>
       <c r="V60" t="n">
-        <v>0.1548751503532719</v>
+        <v>0.1548751503532695</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.001953899999996622</v>
+        <v>0.001591899999993984</v>
       </c>
       <c r="Y60" t="n">
         <v>8</v>
@@ -5426,7 +5426,7 @@
         <v>167.6048857676224</v>
       </c>
       <c r="H61" t="n">
-        <v>4.99151957247074</v>
+        <v>4.991519572470741</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5447,28 +5447,28 @@
         <v>11.95385309927802</v>
       </c>
       <c r="O61" t="n">
-        <v>12.24652955678093</v>
+        <v>12.24652955678095</v>
       </c>
       <c r="P61" t="n">
         <v>11.64985047658604</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.01938436754689367</v>
+        <v>0.01938436754689381</v>
       </c>
       <c r="R61" t="n">
-        <v>0.1887824949913666</v>
+        <v>0.1887824949913631</v>
       </c>
       <c r="S61" t="n">
-        <v>0.06745845795594026</v>
+        <v>0.06745845795594183</v>
       </c>
       <c r="T61" t="n">
-        <v>0.2639347919258319</v>
+        <v>0.2639347919258336</v>
       </c>
       <c r="U61" t="n">
-        <v>0.2511138320344849</v>
+        <v>0.2511138320344851</v>
       </c>
       <c r="V61" t="n">
-        <v>0.152422411559196</v>
+        <v>0.15242241155919</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.001951400000002934</v>
+        <v>0.00162310000001753</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5505,10 +5505,10 @@
         <v>20.45211880877218</v>
       </c>
       <c r="G62" t="n">
-        <v>53.95730919389358</v>
+        <v>53.95730919389356</v>
       </c>
       <c r="H62" t="n">
-        <v>5.543540889058404</v>
+        <v>5.543540889058407</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5535,22 +5535,22 @@
         <v>22.70846773708939</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.02489481552900208</v>
+        <v>0.02489481552900197</v>
       </c>
       <c r="R62" t="n">
-        <v>0.2987559475597113</v>
+        <v>0.2987559475597129</v>
       </c>
       <c r="S62" t="n">
-        <v>0.1560877010339217</v>
+        <v>0.1560877010339209</v>
       </c>
       <c r="T62" t="n">
-        <v>0.3237863720278825</v>
+        <v>0.3237863720278794</v>
       </c>
       <c r="U62" t="n">
-        <v>0.2677198190112928</v>
+        <v>0.2677198190112929</v>
       </c>
       <c r="V62" t="n">
-        <v>0.2361420135325182</v>
+        <v>0.2361420135325205</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.001998100000001557</v>
+        <v>0.002431300000012016</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5584,13 +5584,13 @@
         <v>0.02723879695591765</v>
       </c>
       <c r="F63" t="n">
-        <v>20.22001996767154</v>
+        <v>20.22001996767153</v>
       </c>
       <c r="G63" t="n">
         <v>147.9567501034571</v>
       </c>
       <c r="H63" t="n">
-        <v>5.23982653266068</v>
+        <v>5.239826532660677</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5611,28 +5611,28 @@
         <v>12.87701081010599</v>
       </c>
       <c r="O63" t="n">
-        <v>20.2009287917109</v>
+        <v>20.20092879171089</v>
       </c>
       <c r="P63" t="n">
         <v>13.07830204650028</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.02198238187108394</v>
+        <v>0.0219823818710842</v>
       </c>
       <c r="R63" t="n">
-        <v>0.2051068803364497</v>
+        <v>0.2051068803364469</v>
       </c>
       <c r="S63" t="n">
-        <v>0.1066592543215732</v>
+        <v>0.1066592543215733</v>
       </c>
       <c r="T63" t="n">
-        <v>0.1826560588540376</v>
+        <v>0.1826560588540409</v>
       </c>
       <c r="U63" t="n">
-        <v>0.2578148193080632</v>
+        <v>0.2578148193080633</v>
       </c>
       <c r="V63" t="n">
-        <v>0.09388204132866296</v>
+        <v>0.09388204132866146</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.001970900000003439</v>
+        <v>0.001686299999988705</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5672,7 +5672,7 @@
         <v>6.494786052001124</v>
       </c>
       <c r="H64" t="n">
-        <v>8.242907511835396</v>
+        <v>8.242907511835385</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5696,25 +5696,25 @@
         <v>4.722668053878013</v>
       </c>
       <c r="P64" t="n">
-        <v>27.97674547579022</v>
+        <v>27.97674547579021</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.02266517367659286</v>
+        <v>0.02266517367659272</v>
       </c>
       <c r="R64" t="n">
-        <v>0.5285920907769683</v>
+        <v>0.5285920907769635</v>
       </c>
       <c r="S64" t="n">
         <v>0.08611976730939956</v>
       </c>
       <c r="T64" t="n">
-        <v>0.8606298596374787</v>
+        <v>0.8606298596374677</v>
       </c>
       <c r="U64" t="n">
-        <v>0.2234926543242856</v>
+        <v>0.2234926543242857</v>
       </c>
       <c r="V64" t="n">
-        <v>0.1988987263775217</v>
+        <v>0.1988987263775255</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.002811600000001135</v>
+        <v>0.001396599999992532</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5754,7 +5754,7 @@
         <v>100.0716863708753</v>
       </c>
       <c r="H65" t="n">
-        <v>7.825336791337508</v>
+        <v>7.825336791337505</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5775,28 +5775,28 @@
         <v>18.89625465573057</v>
       </c>
       <c r="O65" t="n">
-        <v>33.18511019836295</v>
+        <v>33.18511019836296</v>
       </c>
       <c r="P65" t="n">
-        <v>19.01673680294779</v>
+        <v>19.01673680294778</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.02488965306081065</v>
+        <v>0.02488965306081421</v>
       </c>
       <c r="R65" t="n">
-        <v>0.3177428207694123</v>
+        <v>0.317742820769497</v>
       </c>
       <c r="S65" t="n">
-        <v>0.2272069614550289</v>
+        <v>0.2272069614550994</v>
       </c>
       <c r="T65" t="n">
-        <v>0.1269586196200112</v>
+        <v>0.1269586196200202</v>
       </c>
       <c r="U65" t="n">
-        <v>0.2398931323509446</v>
+        <v>0.2398931323509447</v>
       </c>
       <c r="V65" t="n">
-        <v>0.04267425353463108</v>
+        <v>0.042674253534629</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.00219610000000614</v>
+        <v>0.001973800000001802</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5830,13 +5830,13 @@
         <v>0.1362896057972217</v>
       </c>
       <c r="F66" t="n">
-        <v>20.03965151948989</v>
+        <v>20.03965151948988</v>
       </c>
       <c r="G66" t="n">
-        <v>68.96565154679642</v>
+        <v>68.96565154679638</v>
       </c>
       <c r="H66" t="n">
-        <v>9.630997963557972</v>
+        <v>9.630997963557967</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5857,28 +5857,28 @@
         <v>24.88481197061157</v>
       </c>
       <c r="O66" t="n">
-        <v>29.09737916841792</v>
+        <v>29.0973791684179</v>
       </c>
       <c r="P66" t="n">
-        <v>24.68707443318154</v>
+        <v>24.68707443318153</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.02566858418655246</v>
+        <v>0.02566858418655174</v>
       </c>
       <c r="R66" t="n">
-        <v>0.3525236784972299</v>
+        <v>0.3525236784972103</v>
       </c>
       <c r="S66" t="n">
-        <v>0.2691820285745614</v>
+        <v>0.269182028574544</v>
       </c>
       <c r="T66" t="n">
-        <v>0.208253905825441</v>
+        <v>0.208253905825432</v>
       </c>
       <c r="U66" t="n">
-        <v>0.2699258513709037</v>
+        <v>0.2699258513709036</v>
       </c>
       <c r="V66" t="n">
-        <v>0.07801077871056458</v>
+        <v>0.07801077871056523</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002251000000001113</v>
+        <v>0.00192230000001814</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5915,10 +5915,10 @@
         <v>19.93076052658354</v>
       </c>
       <c r="G67" t="n">
-        <v>38.65012906280397</v>
+        <v>38.650129062804</v>
       </c>
       <c r="H67" t="n">
-        <v>3.360907120653492</v>
+        <v>3.360907120653489</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5945,22 +5945,22 @@
         <v>20.79840486427727</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.0224610558546154</v>
+        <v>0.02246105585461522</v>
       </c>
       <c r="R67" t="n">
-        <v>0.2900798320547991</v>
+        <v>0.2900798320547988</v>
       </c>
       <c r="S67" t="n">
-        <v>0.09985344996358009</v>
+        <v>0.0998534499635795</v>
       </c>
       <c r="T67" t="n">
-        <v>0.4306148483961428</v>
+        <v>0.4306148483961373</v>
       </c>
       <c r="U67" t="n">
-        <v>0.2480440892991929</v>
+        <v>0.248044089299193</v>
       </c>
       <c r="V67" t="n">
-        <v>0.04517444459996948</v>
+        <v>0.04517444459997019</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002015999999997575</v>
+        <v>0.001617699999997058</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6000,7 +6000,7 @@
         <v>28.27630329799498</v>
       </c>
       <c r="H68" t="n">
-        <v>4.369509240786651</v>
+        <v>4.36950924078665</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6024,25 +6024,25 @@
         <v>9.49467724832812</v>
       </c>
       <c r="P68" t="n">
-        <v>22.060594951785</v>
+        <v>22.06059495178499</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.02230000995902813</v>
+        <v>0.02230000995902793</v>
       </c>
       <c r="R68" t="n">
-        <v>0.3070270092375595</v>
+        <v>0.3070270092375616</v>
       </c>
       <c r="S68" t="n">
-        <v>0.09979493244952235</v>
+        <v>0.09979493244952188</v>
       </c>
       <c r="T68" t="n">
-        <v>0.4674556562376765</v>
+        <v>0.4674556562376718</v>
       </c>
       <c r="U68" t="n">
-        <v>0.2453161861591947</v>
+        <v>0.2453161861591949</v>
       </c>
       <c r="V68" t="n">
-        <v>0.1913355631452326</v>
+        <v>0.1913355631452336</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.00198830000000072</v>
+        <v>0.001656800000006342</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6106,25 +6106,25 @@
         <v>48.24326343147501</v>
       </c>
       <c r="P69" t="n">
-        <v>21.9365393912286</v>
+        <v>21.93653939122861</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.0247185711005833</v>
+        <v>0.0247185711005854</v>
       </c>
       <c r="R69" t="n">
-        <v>0.4083292925891702</v>
+        <v>0.4083292925892746</v>
       </c>
       <c r="S69" t="n">
-        <v>0.3858372689053716</v>
+        <v>0.3858372689054698</v>
       </c>
       <c r="T69" t="n">
-        <v>0.08591186850354439</v>
+        <v>0.08591186850354782</v>
       </c>
       <c r="U69" t="n">
-        <v>0.2437047573959013</v>
+        <v>0.2437047573959015</v>
       </c>
       <c r="V69" t="n">
-        <v>0.1918286889239419</v>
+        <v>0.1918286889239407</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.002893200000002594</v>
+        <v>0.002287300000006098</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6161,10 +6161,10 @@
         <v>19.87576204010363</v>
       </c>
       <c r="G70" t="n">
-        <v>47.5823628729881</v>
+        <v>47.58236287298807</v>
       </c>
       <c r="H70" t="n">
-        <v>3.415112499825759</v>
+        <v>3.415112499825761</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6188,25 +6188,25 @@
         <v>11.79514236295961</v>
       </c>
       <c r="P70" t="n">
-        <v>20.45563432209911</v>
+        <v>20.45563432209912</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.02260788153291729</v>
+        <v>0.02260788153291724</v>
       </c>
       <c r="R70" t="n">
-        <v>0.2738304710825785</v>
+        <v>0.2738304710825715</v>
       </c>
       <c r="S70" t="n">
-        <v>0.1073665742928296</v>
+        <v>0.107366574292829</v>
       </c>
       <c r="T70" t="n">
         <v>0.3840177497836409</v>
       </c>
       <c r="U70" t="n">
-        <v>0.2515283402334559</v>
+        <v>0.251528340233456</v>
       </c>
       <c r="V70" t="n">
-        <v>0.1245036082676552</v>
+        <v>0.1245036082676523</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.001980299999999602</v>
+        <v>0.001602499999989959</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6240,13 +6240,13 @@
         <v>0.08540194662075745</v>
       </c>
       <c r="F71" t="n">
-        <v>19.18338965557693</v>
+        <v>19.18338965557691</v>
       </c>
       <c r="G71" t="n">
-        <v>52.98303021114289</v>
+        <v>52.98303021114288</v>
       </c>
       <c r="H71" t="n">
-        <v>12.02121857540996</v>
+        <v>12.02121857540995</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -6270,25 +6270,25 @@
         <v>26.73039898275079</v>
       </c>
       <c r="P71" t="n">
-        <v>28.27337165117897</v>
+        <v>28.27337165117896</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.02561285330444736</v>
+        <v>0.02561285330444862</v>
       </c>
       <c r="R71" t="n">
-        <v>0.3559070043057171</v>
+        <v>0.3559070043057366</v>
       </c>
       <c r="S71" t="n">
-        <v>0.2871156320980574</v>
+        <v>0.2871156320980847</v>
       </c>
       <c r="T71" t="n">
-        <v>0.2769001377344252</v>
+        <v>0.2769001377344504</v>
       </c>
       <c r="U71" t="n">
-        <v>0.2614042194271389</v>
+        <v>0.2614042194271392</v>
       </c>
       <c r="V71" t="n">
-        <v>0.249156144809646</v>
+        <v>0.2491561448096491</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.003719699999997772</v>
+        <v>0.001884600000011005</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6355,22 +6355,22 @@
         <v>4.913798756441254</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.02207668216701491</v>
+        <v>0.02207668216705429</v>
       </c>
       <c r="R72" t="n">
-        <v>0.4000723726676287</v>
+        <v>0.4000723726688034</v>
       </c>
       <c r="S72" t="n">
-        <v>0.1650811781661115</v>
+        <v>0.1650811781665811</v>
       </c>
       <c r="T72" t="n">
-        <v>0.2800829024455733</v>
+        <v>0.2800829024463954</v>
       </c>
       <c r="U72" t="n">
         <v>0.2522843255478133</v>
       </c>
       <c r="V72" t="n">
-        <v>0.1445232282395221</v>
+        <v>0.1445232282395218</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.005162000000005662</v>
+        <v>0.004217599999975619</v>
       </c>
       <c r="Y72" t="n">
         <v>23</v>
@@ -6404,7 +6404,7 @@
         <v>0.03427788639849281</v>
       </c>
       <c r="F73" t="n">
-        <v>20.19460201685871</v>
+        <v>20.19460201685872</v>
       </c>
       <c r="G73" t="n">
         <v>34.77741984132003</v>
@@ -6434,25 +6434,25 @@
         <v>13.94783049880855</v>
       </c>
       <c r="P73" t="n">
-        <v>25.4651483207362</v>
+        <v>25.46514832073621</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.02495924366880089</v>
+        <v>0.02495924366880017</v>
       </c>
       <c r="R73" t="n">
-        <v>0.3209142869994383</v>
+        <v>0.3209142869994439</v>
       </c>
       <c r="S73" t="n">
-        <v>0.1525712698863519</v>
+        <v>0.1525712698863485</v>
       </c>
       <c r="T73" t="n">
-        <v>0.4106316708225939</v>
+        <v>0.4106316708225781</v>
       </c>
       <c r="U73" t="n">
-        <v>0.2447399069857603</v>
+        <v>0.2447399069857605</v>
       </c>
       <c r="V73" t="n">
-        <v>0.1868833539315528</v>
+        <v>0.1868833539315526</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.003134899999999163</v>
+        <v>0.001622599999990371</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6492,7 +6492,7 @@
         <v>18.92532436909429</v>
       </c>
       <c r="H74" t="n">
-        <v>11.62444953863877</v>
+        <v>11.62444953863876</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -6516,25 +6516,25 @@
         <v>10.54771337742318</v>
       </c>
       <c r="P74" t="n">
-        <v>31.03319150384185</v>
+        <v>31.03319150384184</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.02542632995588125</v>
+        <v>0.02542632995588098</v>
       </c>
       <c r="R74" t="n">
-        <v>0.3858883903195791</v>
+        <v>0.3858883903195874</v>
       </c>
       <c r="S74" t="n">
-        <v>0.1539184035849381</v>
+        <v>0.1539184035849408</v>
       </c>
       <c r="T74" t="n">
-        <v>0.5840897654533022</v>
+        <v>0.5840897654532999</v>
       </c>
       <c r="U74" t="n">
         <v>0.2522534503922889</v>
       </c>
       <c r="V74" t="n">
-        <v>0.1245071881945895</v>
+        <v>0.1245071881945873</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.001978200000003483</v>
+        <v>0.001610300000010056</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6595,28 +6595,28 @@
         <v>16.89259938730791</v>
       </c>
       <c r="O75" t="n">
-        <v>42.57714023392273</v>
+        <v>42.57714023392272</v>
       </c>
       <c r="P75" t="n">
         <v>17.41867067036081</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.02522760772255425</v>
+        <v>0.02522760772255549</v>
       </c>
       <c r="R75" t="n">
-        <v>0.3558783096222742</v>
+        <v>0.3558783096223229</v>
       </c>
       <c r="S75" t="n">
-        <v>0.2659819633219019</v>
+        <v>0.2659819633219376</v>
       </c>
       <c r="T75" t="n">
-        <v>0.09531821659940128</v>
+        <v>0.09531821659940341</v>
       </c>
       <c r="U75" t="n">
-        <v>0.2276741053639018</v>
+        <v>0.2276741053639017</v>
       </c>
       <c r="V75" t="n">
-        <v>0.1781792832421732</v>
+        <v>0.1781792832421661</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.00218749999999801</v>
+        <v>0.001874399999991283</v>
       </c>
       <c r="Y75" t="n">
         <v>9</v>
@@ -6653,10 +6653,10 @@
         <v>19.91615318607791</v>
       </c>
       <c r="G76" t="n">
-        <v>36.45985623018506</v>
+        <v>36.45985623018505</v>
       </c>
       <c r="H76" t="n">
-        <v>12.30922891345728</v>
+        <v>12.30922891345729</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6683,22 +6683,22 @@
         <v>30.8239438937488</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.02669633843123451</v>
+        <v>0.02669633843123366</v>
       </c>
       <c r="R76" t="n">
-        <v>0.3715409366051706</v>
+        <v>0.3715409366051409</v>
       </c>
       <c r="S76" t="n">
-        <v>0.2391287045689017</v>
+        <v>0.2391287045688772</v>
       </c>
       <c r="T76" t="n">
-        <v>0.4048709091786896</v>
+        <v>0.4048709091786624</v>
       </c>
       <c r="U76" t="n">
-        <v>0.2276346637479119</v>
+        <v>0.2276346637479121</v>
       </c>
       <c r="V76" t="n">
-        <v>0.03890413663198753</v>
+        <v>0.03890413663198536</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.001776800000001799</v>
+        <v>0.001383199999992257</v>
       </c>
       <c r="Y76" t="n">
         <v>7</v>
@@ -6738,7 +6738,7 @@
         <v>100.4294863721184</v>
       </c>
       <c r="H77" t="n">
-        <v>3.985153646912269</v>
+        <v>3.985153646912271</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6765,22 +6765,22 @@
         <v>17.91178032369136</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.0237545258871817</v>
+        <v>0.02375452588718131</v>
       </c>
       <c r="R77" t="n">
-        <v>0.2548601599338324</v>
+        <v>0.2548601599338438</v>
       </c>
       <c r="S77" t="n">
-        <v>0.1358303406677908</v>
+        <v>0.1358303406677924</v>
       </c>
       <c r="T77" t="n">
-        <v>0.2377085788655459</v>
+        <v>0.237708578865541</v>
       </c>
       <c r="U77" t="n">
-        <v>0.2396184675004155</v>
+        <v>0.2396184675004156</v>
       </c>
       <c r="V77" t="n">
-        <v>0.2662764063012871</v>
+        <v>0.266276406301288</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.001986000000002264</v>
+        <v>0.001624999999989996</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6814,13 +6814,13 @@
         <v>359.9642644761432</v>
       </c>
       <c r="F78" t="n">
-        <v>19.91998395192908</v>
+        <v>19.91998395192907</v>
       </c>
       <c r="G78" t="n">
         <v>56.02985978309933</v>
       </c>
       <c r="H78" t="n">
-        <v>12.80646861535508</v>
+        <v>12.80646861535507</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6841,28 +6841,28 @@
         <v>29.4964254447366</v>
       </c>
       <c r="O78" t="n">
-        <v>28.23536865162822</v>
+        <v>28.23536865162821</v>
       </c>
       <c r="P78" t="n">
-        <v>29.38726458391949</v>
+        <v>29.38726458391947</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.02694566980985885</v>
+        <v>0.02694566980985749</v>
       </c>
       <c r="R78" t="n">
-        <v>0.3916978782418546</v>
+        <v>0.3916978782418345</v>
       </c>
       <c r="S78" t="n">
-        <v>0.3246014585070261</v>
+        <v>0.324601458506999</v>
       </c>
       <c r="T78" t="n">
-        <v>0.2774512168552234</v>
+        <v>0.2774512168552001</v>
       </c>
       <c r="U78" t="n">
-        <v>0.2383678885323652</v>
+        <v>0.2383678885323653</v>
       </c>
       <c r="V78" t="n">
-        <v>0.028900093758429</v>
+        <v>0.02890009375843208</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002339100000000371</v>
+        <v>0.002442799999982981</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6926,25 +6926,25 @@
         <v>41.59662825845874</v>
       </c>
       <c r="P79" t="n">
-        <v>6.656430205706482</v>
+        <v>6.656430205706485</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.02199955015376633</v>
+        <v>0.02199955015376166</v>
       </c>
       <c r="R79" t="n">
-        <v>0.2395228284931122</v>
+        <v>0.239522828493002</v>
       </c>
       <c r="S79" t="n">
-        <v>0.1212615234690231</v>
+        <v>0.1212615234689717</v>
       </c>
       <c r="T79" t="n">
-        <v>0.1007805673756509</v>
+        <v>0.1007805673756162</v>
       </c>
       <c r="U79" t="n">
-        <v>0.2496614453420674</v>
+        <v>0.2496614453420672</v>
       </c>
       <c r="V79" t="n">
-        <v>0.02486033052871057</v>
+        <v>0.02486033052871083</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.003374199999996108</v>
+        <v>0.002463599999998678</v>
       </c>
       <c r="Y79" t="n">
         <v>13</v>
@@ -7011,22 +7011,22 @@
         <v>30.91044935966957</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.02411565501490186</v>
+        <v>0.02411565501490127</v>
       </c>
       <c r="R80" t="n">
-        <v>0.4912231193821533</v>
+        <v>0.4912231193821516</v>
       </c>
       <c r="S80" t="n">
-        <v>0.1089499211843542</v>
+        <v>0.1089499211843522</v>
       </c>
       <c r="T80" t="n">
-        <v>0.813707218652387</v>
+        <v>0.8137072186523594</v>
       </c>
       <c r="U80" t="n">
-        <v>0.251086477410817</v>
+        <v>0.2510864774108173</v>
       </c>
       <c r="V80" t="n">
-        <v>0.1359203902104946</v>
+        <v>0.1359203902104944</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.003180100000001573</v>
+        <v>0.00142450000001304</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7060,13 +7060,13 @@
         <v>359.8543279836997</v>
       </c>
       <c r="F81" t="n">
-        <v>20.26923045898366</v>
+        <v>20.26923045898368</v>
       </c>
       <c r="G81" t="n">
-        <v>88.26078588152919</v>
+        <v>88.26078588152917</v>
       </c>
       <c r="H81" t="n">
-        <v>8.998534368549734</v>
+        <v>8.998534368549743</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -7090,25 +7090,25 @@
         <v>33.52465987855096</v>
       </c>
       <c r="P81" t="n">
-        <v>21.5684901979571</v>
+        <v>21.56849019795713</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.02597614241067782</v>
+        <v>0.02597614241067683</v>
       </c>
       <c r="R81" t="n">
-        <v>0.3474315085382688</v>
+        <v>0.3474315085382658</v>
       </c>
       <c r="S81" t="n">
-        <v>0.2650408852864217</v>
+        <v>0.265040885286411</v>
       </c>
       <c r="T81" t="n">
-        <v>0.1419503098712265</v>
+        <v>0.1419503098712218</v>
       </c>
       <c r="U81" t="n">
-        <v>0.2358940088929318</v>
+        <v>0.2358940088929316</v>
       </c>
       <c r="V81" t="n">
-        <v>0.2209660306199023</v>
+        <v>0.2209660306199073</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002219999999994116</v>
+        <v>0.001921299999992243</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7142,13 +7142,13 @@
         <v>359.9803338455386</v>
       </c>
       <c r="F82" t="n">
-        <v>19.97564713026318</v>
+        <v>19.97564713026317</v>
       </c>
       <c r="G82" t="n">
         <v>94.70757125364797</v>
       </c>
       <c r="H82" t="n">
-        <v>11.2988367072054</v>
+        <v>11.29883670720539</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -7169,28 +7169,28 @@
         <v>22.12910312982312</v>
       </c>
       <c r="O82" t="n">
-        <v>42.09339766609553</v>
+        <v>42.09339766609554</v>
       </c>
       <c r="P82" t="n">
         <v>21.89402110876349</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.02566622026236695</v>
+        <v>0.02566622026236621</v>
       </c>
       <c r="R82" t="n">
-        <v>0.3866213781845773</v>
+        <v>0.3866213781845376</v>
       </c>
       <c r="S82" t="n">
-        <v>0.335750133233318</v>
+        <v>0.3357501332332872</v>
       </c>
       <c r="T82" t="n">
-        <v>0.09844263640373942</v>
+        <v>0.09844263640373802</v>
       </c>
       <c r="U82" t="n">
-        <v>0.2386971029062057</v>
+        <v>0.2386971029062056</v>
       </c>
       <c r="V82" t="n">
-        <v>0.07879498691931108</v>
+        <v>0.07879498691931278</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002420900000004167</v>
+        <v>0.002052499999990687</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7227,10 +7227,10 @@
         <v>20.46461446501568</v>
       </c>
       <c r="G83" t="n">
-        <v>66.8400318724774</v>
+        <v>66.84003187247734</v>
       </c>
       <c r="H83" t="n">
-        <v>6.943078542540386</v>
+        <v>6.943078542540391</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7251,28 +7251,28 @@
         <v>22.88308841551866</v>
       </c>
       <c r="O83" t="n">
-        <v>22.78194640254165</v>
+        <v>22.78194640254164</v>
       </c>
       <c r="P83" t="n">
-        <v>22.9125821609519</v>
+        <v>22.91258216095191</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.02543145073442894</v>
+        <v>0.02543145073442946</v>
       </c>
       <c r="R83" t="n">
-        <v>0.3187897524520382</v>
+        <v>0.3187897524520494</v>
       </c>
       <c r="S83" t="n">
-        <v>0.2016832892679861</v>
+        <v>0.2016832892679955</v>
       </c>
       <c r="T83" t="n">
-        <v>0.2486004034844349</v>
+        <v>0.2486004034844433</v>
       </c>
       <c r="U83" t="n">
-        <v>0.2529251692399084</v>
+        <v>0.2529251692399082</v>
       </c>
       <c r="V83" t="n">
-        <v>0.156110520587937</v>
+        <v>0.1561105205879345</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002026600000000656</v>
+        <v>0.001640500000007705</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7339,19 +7339,19 @@
         <v>28.37372218065171</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.02656423252435691</v>
+        <v>0.02656423252435831</v>
       </c>
       <c r="R84" t="n">
-        <v>0.3619055500708142</v>
+        <v>0.3619055500708542</v>
       </c>
       <c r="S84" t="n">
-        <v>0.2575372500375342</v>
+        <v>0.2575372500375721</v>
       </c>
       <c r="T84" t="n">
-        <v>0.314289199301924</v>
+        <v>0.3142891993019551</v>
       </c>
       <c r="U84" t="n">
-        <v>0.2694510818981579</v>
+        <v>0.269451081898158</v>
       </c>
       <c r="V84" t="n">
         <v>0.1438218431067772</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.001987600000006751</v>
+        <v>0.001592900000019881</v>
       </c>
       <c r="Y84" t="n">
         <v>8</v>
@@ -7391,10 +7391,10 @@
         <v>19.63532787808871</v>
       </c>
       <c r="G85" t="n">
-        <v>46.09365587255876</v>
+        <v>46.09365587255874</v>
       </c>
       <c r="H85" t="n">
-        <v>10.94141648212954</v>
+        <v>10.94141648212955</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -7418,25 +7418,25 @@
         <v>22.14328555449782</v>
       </c>
       <c r="P85" t="n">
-        <v>28.20441135672088</v>
+        <v>28.2044113567209</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.02598246994471061</v>
+        <v>0.02598246994471079</v>
       </c>
       <c r="R85" t="n">
-        <v>0.3495795687152616</v>
+        <v>0.3495795687152718</v>
       </c>
       <c r="S85" t="n">
-        <v>0.2447485746656711</v>
+        <v>0.2447485746656789</v>
       </c>
       <c r="T85" t="n">
-        <v>0.3216514396610547</v>
+        <v>0.3216514396610609</v>
       </c>
       <c r="U85" t="n">
-        <v>0.2475023151565238</v>
+        <v>0.2475023151565239</v>
       </c>
       <c r="V85" t="n">
-        <v>0.1123138980356239</v>
+        <v>0.1123138980356217</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.001774500000003343</v>
+        <v>0.001522899999997662</v>
       </c>
       <c r="Y85" t="n">
         <v>7</v>
@@ -7470,13 +7470,13 @@
         <v>0.1412096052216827</v>
       </c>
       <c r="F86" t="n">
-        <v>20.35881851229165</v>
+        <v>20.35881851229166</v>
       </c>
       <c r="G86" t="n">
-        <v>8.032193697514016</v>
+        <v>8.03219369751403</v>
       </c>
       <c r="H86" t="n">
-        <v>7.28306027085272</v>
+        <v>7.283060270852715</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>26.50902879534186</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.02273323439316068</v>
+        <v>0.0227332343931607</v>
       </c>
       <c r="R86" t="n">
-        <v>0.4793081781591836</v>
+        <v>0.4793081781591858</v>
       </c>
       <c r="S86" t="n">
-        <v>0.08627107702205228</v>
+        <v>0.08627107702205253</v>
       </c>
       <c r="T86" t="n">
-        <v>0.7779232653378403</v>
+        <v>0.777923265337843</v>
       </c>
       <c r="U86" t="n">
         <v>0.2793667200478551</v>
       </c>
       <c r="V86" t="n">
-        <v>0.08837742896510212</v>
+        <v>0.08837742896510314</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001776800000001799</v>
+        <v>0.001467300000001615</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7558,7 +7558,7 @@
         <v>111.4620582327187</v>
       </c>
       <c r="H87" t="n">
-        <v>9.120742590106465</v>
+        <v>9.120742590106468</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -7579,28 +7579,28 @@
         <v>17.50678391245108</v>
       </c>
       <c r="O87" t="n">
-        <v>40.28773155226105</v>
+        <v>40.28773155226106</v>
       </c>
       <c r="P87" t="n">
-        <v>17.57992417886152</v>
+        <v>17.57992417886153</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.02450043215321631</v>
+        <v>0.02450043215321682</v>
       </c>
       <c r="R87" t="n">
-        <v>0.3337270371015233</v>
+        <v>0.3337270371015246</v>
       </c>
       <c r="S87" t="n">
-        <v>0.2499939604537183</v>
+        <v>0.2499939604537219</v>
       </c>
       <c r="T87" t="n">
-        <v>0.0939754357826581</v>
+        <v>0.09397543578265768</v>
       </c>
       <c r="U87" t="n">
-        <v>0.2551849069508748</v>
+        <v>0.2551849069508745</v>
       </c>
       <c r="V87" t="n">
-        <v>0.02307312386093434</v>
+        <v>0.02307312386093633</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.00320119999999946</v>
+        <v>0.001790199999987863</v>
       </c>
       <c r="Y87" t="n">
         <v>9</v>
@@ -7637,10 +7637,10 @@
         <v>20.0226231835747</v>
       </c>
       <c r="G88" t="n">
-        <v>38.00644720428808</v>
+        <v>38.00644720428809</v>
       </c>
       <c r="H88" t="n">
-        <v>5.226895059216431</v>
+        <v>5.226895059216426</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7664,25 +7664,25 @@
         <v>12.67812717759972</v>
       </c>
       <c r="P88" t="n">
-        <v>22.9069530818126</v>
+        <v>22.90695308181259</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.02376893766447944</v>
+        <v>0.02376893766448016</v>
       </c>
       <c r="R88" t="n">
-        <v>0.2958800571843087</v>
+        <v>0.2958800571843059</v>
       </c>
       <c r="S88" t="n">
-        <v>0.1268400885954595</v>
+        <v>0.1268400885954646</v>
       </c>
       <c r="T88" t="n">
-        <v>0.3996993392941112</v>
+        <v>0.3996993392941273</v>
       </c>
       <c r="U88" t="n">
-        <v>0.253326038769333</v>
+        <v>0.2533260387693328</v>
       </c>
       <c r="V88" t="n">
-        <v>0.1911127569874244</v>
+        <v>0.1911127569874269</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002018200000001968</v>
+        <v>0.002392500000013342</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7713,16 +7713,16 @@
         <v>14.45881652295873</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0131853319761432</v>
+        <v>0.01318533197613048</v>
       </c>
       <c r="F89" t="n">
-        <v>19.99363947866528</v>
+        <v>19.99363947866529</v>
       </c>
       <c r="G89" t="n">
         <v>118.2813127224057</v>
       </c>
       <c r="H89" t="n">
-        <v>14.42849850557962</v>
+        <v>14.42849850557963</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7746,25 +7746,25 @@
         <v>60.81177365595021</v>
       </c>
       <c r="P89" t="n">
-        <v>18.81107837810509</v>
+        <v>18.8110783781051</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.02543374879735202</v>
+        <v>0.02543374879735519</v>
       </c>
       <c r="R89" t="n">
-        <v>0.4826445806030682</v>
+        <v>0.4826445806033078</v>
       </c>
       <c r="S89" t="n">
-        <v>0.4352350166269457</v>
+        <v>0.4352350166271427</v>
       </c>
       <c r="T89" t="n">
-        <v>0.1893857444932248</v>
+        <v>0.1893857444933231</v>
       </c>
       <c r="U89" t="n">
         <v>0.2523460004087681</v>
       </c>
       <c r="V89" t="n">
-        <v>0.01587939113272369</v>
+        <v>0.01587939113272153</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.004207499999999698</v>
+        <v>0.003457699999984243</v>
       </c>
       <c r="Y89" t="n">
         <v>19</v>
@@ -7795,16 +7795,16 @@
         <v>9.085796258556961</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0004414568285529464</v>
+        <v>0.0004414568285656686</v>
       </c>
       <c r="F90" t="n">
-        <v>20.48941349237998</v>
+        <v>20.48941349237996</v>
       </c>
       <c r="G90" t="n">
         <v>116.3446024855353</v>
       </c>
       <c r="H90" t="n">
-        <v>9.380187255536027</v>
+        <v>9.380187255536013</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7825,28 +7825,28 @@
         <v>16.60650249154164</v>
       </c>
       <c r="O90" t="n">
-        <v>41.15977632929174</v>
+        <v>41.15977632929173</v>
       </c>
       <c r="P90" t="n">
-        <v>17.1048998005656</v>
+        <v>17.10489980056558</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.02501066730140568</v>
+        <v>0.02501066730140387</v>
       </c>
       <c r="R90" t="n">
-        <v>0.3460420784162613</v>
+        <v>0.3460420784161964</v>
       </c>
       <c r="S90" t="n">
-        <v>0.2523807534955032</v>
+        <v>0.252380753495457</v>
       </c>
       <c r="T90" t="n">
-        <v>0.09557528781166444</v>
+        <v>0.09557528781166161</v>
       </c>
       <c r="U90" t="n">
-        <v>0.2490318475288213</v>
+        <v>0.2490318475288216</v>
       </c>
       <c r="V90" t="n">
-        <v>0.1442920469094744</v>
+        <v>0.1442920469094684</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002398499999998194</v>
+        <v>0.001847299999980123</v>
       </c>
       <c r="Y90" t="n">
         <v>9</v>
@@ -7886,7 +7886,7 @@
         <v>92.34503236209328</v>
       </c>
       <c r="H91" t="n">
-        <v>5.912617058454068</v>
+        <v>5.912617058454069</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7913,22 +7913,22 @@
         <v>19.00206481479893</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.02408390418147292</v>
+        <v>0.02408390418147243</v>
       </c>
       <c r="R91" t="n">
-        <v>0.2819542103508145</v>
+        <v>0.2819542103508125</v>
       </c>
       <c r="S91" t="n">
-        <v>0.1810104060222514</v>
+        <v>0.1810104060222461</v>
       </c>
       <c r="T91" t="n">
-        <v>0.1789523410427443</v>
+        <v>0.1789523410427407</v>
       </c>
       <c r="U91" t="n">
-        <v>0.259874381963062</v>
+        <v>0.2598743819630619</v>
       </c>
       <c r="V91" t="n">
-        <v>0.1619787729884162</v>
+        <v>0.1619787729884158</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002334700000005796</v>
+        <v>0.002220800000003464</v>
       </c>
       <c r="Y91" t="n">
         <v>9</v>
@@ -7965,10 +7965,10 @@
         <v>19.54677818419799</v>
       </c>
       <c r="G92" t="n">
-        <v>25.33428842661051</v>
+        <v>25.33428842661052</v>
       </c>
       <c r="H92" t="n">
-        <v>5.290394599905127</v>
+        <v>5.29039459990513</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7989,28 +7989,28 @@
         <v>22.92041397631485</v>
       </c>
       <c r="O92" t="n">
-        <v>9.689502628750393</v>
+        <v>9.689502628750406</v>
       </c>
       <c r="P92" t="n">
-        <v>22.99638729970454</v>
+        <v>22.99638729970455</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.02246484385598827</v>
+        <v>0.02246484385598825</v>
       </c>
       <c r="R92" t="n">
-        <v>0.3105360944604149</v>
+        <v>0.3105360944604156</v>
       </c>
       <c r="S92" t="n">
-        <v>0.1045999713313306</v>
+        <v>0.104599971331331</v>
       </c>
       <c r="T92" t="n">
-        <v>0.472790501828622</v>
+        <v>0.4727905018286269</v>
       </c>
       <c r="U92" t="n">
-        <v>0.2678785387291781</v>
+        <v>0.2678785387291778</v>
       </c>
       <c r="V92" t="n">
-        <v>0.2821612661259436</v>
+        <v>0.2821612661259462</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002103500000004033</v>
+        <v>0.001669399999997268</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8047,10 +8047,10 @@
         <v>19.69418490717067</v>
       </c>
       <c r="G93" t="n">
-        <v>35.82958102408205</v>
+        <v>35.82958102408204</v>
       </c>
       <c r="H93" t="n">
-        <v>6.95245889169803</v>
+        <v>6.952458891698036</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8074,25 +8074,25 @@
         <v>14.18494523816993</v>
       </c>
       <c r="P93" t="n">
-        <v>24.59175575064704</v>
+        <v>24.59175575064705</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.02423008459502732</v>
+        <v>0.02423008459502756</v>
       </c>
       <c r="R93" t="n">
-        <v>0.3030301727644991</v>
+        <v>0.3030301727645007</v>
       </c>
       <c r="S93" t="n">
-        <v>0.1465823728382721</v>
+        <v>0.1465823728382744</v>
       </c>
       <c r="T93" t="n">
-        <v>0.3866237410905126</v>
+        <v>0.3866237410905191</v>
       </c>
       <c r="U93" t="n">
-        <v>0.2351315779661091</v>
+        <v>0.2351315779661092</v>
       </c>
       <c r="V93" t="n">
-        <v>0.03035206744009291</v>
+        <v>0.03035206744009538</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002048500000000786</v>
+        <v>0.001679400000000442</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8126,7 +8126,7 @@
         <v>0.1312727801645387</v>
       </c>
       <c r="F94" t="n">
-        <v>19.1583895930925</v>
+        <v>19.15838959309249</v>
       </c>
       <c r="G94" t="n">
         <v>160.6545296925759</v>
@@ -8153,28 +8153,28 @@
         <v>7.253282679324334</v>
       </c>
       <c r="O94" t="n">
-        <v>62.28551851041333</v>
+        <v>62.28551851041335</v>
       </c>
       <c r="P94" t="n">
-        <v>6.696847749368342</v>
+        <v>6.696847749368337</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.02215973858635096</v>
+        <v>0.02215973858635472</v>
       </c>
       <c r="R94" t="n">
-        <v>0.3386038278658227</v>
+        <v>0.3386038278658924</v>
       </c>
       <c r="S94" t="n">
-        <v>0.1730237722976509</v>
+        <v>0.1730237722976898</v>
       </c>
       <c r="T94" t="n">
-        <v>0.2027747671947693</v>
+        <v>0.2027747671948082</v>
       </c>
       <c r="U94" t="n">
-        <v>0.2223172908290022</v>
+        <v>0.2223172908290024</v>
       </c>
       <c r="V94" t="n">
-        <v>0.2916221056692384</v>
+        <v>0.2916221056692394</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.006436099999994838</v>
+        <v>0.004776300000003175</v>
       </c>
       <c r="Y94" t="n">
         <v>22</v>
@@ -8208,13 +8208,13 @@
         <v>359.9793411384624</v>
       </c>
       <c r="F95" t="n">
-        <v>19.67506136762715</v>
+        <v>19.67506136762714</v>
       </c>
       <c r="G95" t="n">
         <v>109.0596562904705</v>
       </c>
       <c r="H95" t="n">
-        <v>10.67669427240028</v>
+        <v>10.67669427240027</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -8235,28 +8235,28 @@
         <v>18.82125777249706</v>
       </c>
       <c r="O95" t="n">
-        <v>45.87231958044117</v>
+        <v>45.87231958044116</v>
       </c>
       <c r="P95" t="n">
         <v>18.49151642011092</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.02465678369919963</v>
+        <v>0.02465678369920167</v>
       </c>
       <c r="R95" t="n">
-        <v>0.3625630174148206</v>
+        <v>0.3625630174148746</v>
       </c>
       <c r="S95" t="n">
-        <v>0.2988920511278551</v>
+        <v>0.2988920511279033</v>
       </c>
       <c r="T95" t="n">
-        <v>0.09050829942139212</v>
+        <v>0.09050829942139359</v>
       </c>
       <c r="U95" t="n">
         <v>0.2250377868554512</v>
       </c>
       <c r="V95" t="n">
-        <v>0.08710476389752971</v>
+        <v>0.08710476389753197</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002474300000002927</v>
+        <v>0.0019754000000205</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8296,7 +8296,7 @@
         <v>129.3970398916539</v>
       </c>
       <c r="H96" t="n">
-        <v>10.09818267379379</v>
+        <v>10.0981826737938</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -8323,22 +8323,22 @@
         <v>14.14338532239187</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.02367663648574879</v>
+        <v>0.02367663648575132</v>
       </c>
       <c r="R96" t="n">
-        <v>0.3315638580542264</v>
+        <v>0.331563858054327</v>
       </c>
       <c r="S96" t="n">
-        <v>0.2375062316035111</v>
+        <v>0.2375062316035781</v>
       </c>
       <c r="T96" t="n">
-        <v>0.1098541605842323</v>
+        <v>0.1098541605842573</v>
       </c>
       <c r="U96" t="n">
-        <v>0.2490160549697017</v>
+        <v>0.2490160549697016</v>
       </c>
       <c r="V96" t="n">
-        <v>0.09595279032986906</v>
+        <v>0.09595279032986721</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.00438570000000027</v>
+        <v>0.002825099999995473</v>
       </c>
       <c r="Y96" t="n">
         <v>15</v>
@@ -8375,10 +8375,10 @@
         <v>20.01921699186739</v>
       </c>
       <c r="G97" t="n">
-        <v>40.58996670903355</v>
+        <v>40.58996670903353</v>
       </c>
       <c r="H97" t="n">
-        <v>5.420561151096803</v>
+        <v>5.420561151096804</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -8405,22 +8405,22 @@
         <v>22.98419413262992</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.02397665259147312</v>
+        <v>0.02397665259147332</v>
       </c>
       <c r="R97" t="n">
-        <v>0.2940976694611667</v>
+        <v>0.2940976694611656</v>
       </c>
       <c r="S97" t="n">
-        <v>0.1335702034051887</v>
+        <v>0.1335702034051911</v>
       </c>
       <c r="T97" t="n">
-        <v>0.3811809886214251</v>
+        <v>0.3811809886214302</v>
       </c>
       <c r="U97" t="n">
-        <v>0.2359786066767472</v>
+        <v>0.2359786066767471</v>
       </c>
       <c r="V97" t="n">
-        <v>0.09130556366685094</v>
+        <v>0.09130556366685136</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002975499999998021</v>
+        <v>0.001754699999992226</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8454,13 +8454,13 @@
         <v>0.1184133877506853</v>
       </c>
       <c r="F98" t="n">
-        <v>19.84025354432394</v>
+        <v>19.84025354432393</v>
       </c>
       <c r="G98" t="n">
-        <v>39.16695909541178</v>
+        <v>39.16695909541177</v>
       </c>
       <c r="H98" t="n">
-        <v>13.24532389459853</v>
+        <v>13.24532389459852</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -8484,25 +8484,25 @@
         <v>20.84447913084438</v>
       </c>
       <c r="P98" t="n">
-        <v>31.61619754103461</v>
+        <v>31.61619754103459</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.02678425148241897</v>
+        <v>0.02678425148241819</v>
       </c>
       <c r="R98" t="n">
-        <v>0.3830558410250751</v>
+        <v>0.3830558410250877</v>
       </c>
       <c r="S98" t="n">
-        <v>0.2689432365774833</v>
+        <v>0.2689432365774859</v>
       </c>
       <c r="T98" t="n">
-        <v>0.3926580692908367</v>
+        <v>0.3926580692908284</v>
       </c>
       <c r="U98" t="n">
-        <v>0.2418517519077356</v>
+        <v>0.2418517519077355</v>
       </c>
       <c r="V98" t="n">
-        <v>0.1868629573190833</v>
+        <v>0.1868629573190853</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002097700000000202</v>
+        <v>0.001600700000011557</v>
       </c>
       <c r="Y98" t="n">
         <v>8</v>
@@ -8536,13 +8536,13 @@
         <v>0.0970810567655896</v>
       </c>
       <c r="F99" t="n">
-        <v>19.5392082906825</v>
+        <v>19.53920829068255</v>
       </c>
       <c r="G99" t="n">
         <v>151.0711207135837</v>
       </c>
       <c r="H99" t="n">
-        <v>14.19903346925695</v>
+        <v>14.19903346925699</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -8563,28 +8563,28 @@
         <v>9.999091878929827</v>
       </c>
       <c r="O99" t="n">
-        <v>77.98644820913955</v>
+        <v>77.98644820913957</v>
       </c>
       <c r="P99" t="n">
-        <v>9.657157215827469</v>
+        <v>9.6571572158275</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.02440783027965489</v>
+        <v>0.02440783027969558</v>
       </c>
       <c r="R99" t="n">
-        <v>0.5260951420665851</v>
+        <v>0.5260951420679576</v>
       </c>
       <c r="S99" t="n">
-        <v>0.3147222481592058</v>
+        <v>0.3147222481600208</v>
       </c>
       <c r="T99" t="n">
-        <v>0.3779622021937772</v>
+        <v>0.3779622021947609</v>
       </c>
       <c r="U99" t="n">
         <v>0.2457421201661269</v>
       </c>
       <c r="V99" t="n">
-        <v>0.163151077580834</v>
+        <v>0.1631510775808152</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.009578400000002318</v>
+        <v>0.004113200000006145</v>
       </c>
       <c r="Y99" t="n">
         <v>23</v>
@@ -8624,7 +8624,7 @@
         <v>133.337619332689</v>
       </c>
       <c r="H100" t="n">
-        <v>9.277243204411587</v>
+        <v>9.277243204411585</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -8645,28 +8645,28 @@
         <v>13.77788699865662</v>
       </c>
       <c r="O100" t="n">
-        <v>46.07177646861999</v>
+        <v>46.07177646861998</v>
       </c>
       <c r="P100" t="n">
         <v>12.94132434901715</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.02235747391147544</v>
+        <v>0.02235747391147745</v>
       </c>
       <c r="R100" t="n">
-        <v>0.2943256670675209</v>
+        <v>0.2943256670675634</v>
       </c>
       <c r="S100" t="n">
-        <v>0.2035078036492732</v>
+        <v>0.2035078036493059</v>
       </c>
       <c r="T100" t="n">
-        <v>0.09822178738493549</v>
+        <v>0.09822178738494117</v>
       </c>
       <c r="U100" t="n">
         <v>0.2716719204601077</v>
       </c>
       <c r="V100" t="n">
-        <v>0.3024826287744323</v>
+        <v>0.3024826287744332</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.003157000000001631</v>
+        <v>0.002562300000022333</v>
       </c>
       <c r="Y100" t="n">
         <v>13</v>
@@ -8706,7 +8706,7 @@
         <v>120.6515183862381</v>
       </c>
       <c r="H101" t="n">
-        <v>9.028802592275751</v>
+        <v>9.028802592275753</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8730,25 +8730,25 @@
         <v>40.84307722056904</v>
       </c>
       <c r="P101" t="n">
-        <v>16.01148916919405</v>
+        <v>16.01148916919406</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.02463992117327763</v>
+        <v>0.02463992117327699</v>
       </c>
       <c r="R101" t="n">
-        <v>0.3264721406496979</v>
+        <v>0.3264721406496592</v>
       </c>
       <c r="S101" t="n">
-        <v>0.2320498301426569</v>
+        <v>0.2320498301426317</v>
       </c>
       <c r="T101" t="n">
-        <v>0.09417995428462789</v>
+        <v>0.0941799542846259</v>
       </c>
       <c r="U101" t="n">
-        <v>0.2429923162628073</v>
+        <v>0.2429923162628069</v>
       </c>
       <c r="V101" t="n">
-        <v>0.09723621287577823</v>
+        <v>0.0972362128757791</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.005350900000003378</v>
+        <v>0.001987100000008013</v>
       </c>
       <c r="Y101" t="n">
         <v>10</v>
